--- a/Code/Results/Cases/Case_0_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9140526582972484</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9282055056387097</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9311045951855772</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.8856897368278756</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9391475667161768</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9407647606545282</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9436152013347201</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8990102898461119</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9813237856062564</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9260989590031795</v>
+      </c>
+      <c r="D3">
+        <v>0.9387733405390363</v>
+      </c>
+      <c r="E3">
+        <v>0.9412742882979804</v>
+      </c>
+      <c r="F3">
+        <v>0.9014296559503037</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.045318143171977</v>
+      </c>
+      <c r="J3">
+        <v>0.9488291841512652</v>
+      </c>
+      <c r="K3">
+        <v>0.9502545858235407</v>
+      </c>
+      <c r="L3">
+        <v>0.9527181318525563</v>
+      </c>
+      <c r="M3">
+        <v>0.9135011612409429</v>
+      </c>
+      <c r="N3">
+        <v>0.9848825502881207</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9334882017800014</v>
+      </c>
+      <c r="D4">
+        <v>0.9452642403163556</v>
+      </c>
+      <c r="E4">
+        <v>0.9475225192737227</v>
+      </c>
+      <c r="F4">
+        <v>0.9110496631400303</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.045357368412754</v>
+      </c>
+      <c r="J4">
+        <v>0.9547611694462076</v>
+      </c>
+      <c r="K4">
+        <v>0.9560714777571315</v>
+      </c>
+      <c r="L4">
+        <v>0.9582984718263398</v>
+      </c>
+      <c r="M4">
+        <v>0.9223550733292073</v>
+      </c>
+      <c r="N4">
+        <v>0.9870611476374678</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9365074422037021</v>
+      </c>
+      <c r="D5">
+        <v>0.9479182173258517</v>
+      </c>
+      <c r="E5">
+        <v>0.9500776504982069</v>
+      </c>
+      <c r="F5">
+        <v>0.9149736687579282</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.045368675785518</v>
+      </c>
+      <c r="J5">
+        <v>0.9571832745749553</v>
+      </c>
+      <c r="K5">
+        <v>0.9584471068636139</v>
+      </c>
+      <c r="L5">
+        <v>0.9605775879441445</v>
+      </c>
+      <c r="M5">
+        <v>0.9259657589261299</v>
+      </c>
+      <c r="N5">
+        <v>0.9879500692795931</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9370095290399437</v>
+      </c>
+      <c r="D6">
+        <v>0.9483596616023419</v>
+      </c>
+      <c r="E6">
+        <v>0.9505026736234946</v>
+      </c>
+      <c r="F6">
+        <v>0.9156258605459416</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.04537027023839</v>
+      </c>
+      <c r="J6">
+        <v>0.9575859580039117</v>
+      </c>
+      <c r="K6">
+        <v>0.9588420923674557</v>
+      </c>
+      <c r="L6">
+        <v>0.9609565309835799</v>
+      </c>
+      <c r="M6">
+        <v>0.9265658216881409</v>
+      </c>
+      <c r="N6">
+        <v>0.9880978139186084</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9335288758284881</v>
+      </c>
+      <c r="D7">
+        <v>0.9452999868348156</v>
+      </c>
+      <c r="E7">
+        <v>0.9475569330309135</v>
+      </c>
+      <c r="F7">
+        <v>0.9111025506079338</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.045357539874439</v>
+      </c>
+      <c r="J7">
+        <v>0.9547938059803502</v>
+      </c>
+      <c r="K7">
+        <v>0.95610348606764</v>
+      </c>
+      <c r="L7">
+        <v>0.9583291794384207</v>
+      </c>
+      <c r="M7">
+        <v>0.9224037414074756</v>
+      </c>
+      <c r="N7">
+        <v>0.9870731280813285</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9182142572109854</v>
+      </c>
+      <c r="D8">
+        <v>0.9318543384264202</v>
+      </c>
+      <c r="E8">
+        <v>0.93461550659476</v>
+      </c>
+      <c r="F8">
+        <v>0.8911359973716274</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J8">
+        <v>0.9424936409848433</v>
+      </c>
+      <c r="K8">
+        <v>0.9440439875891834</v>
+      </c>
+      <c r="L8">
+        <v>0.9467605744803352</v>
+      </c>
+      <c r="M8">
+        <v>0.9040248114571685</v>
+      </c>
+      <c r="N8">
+        <v>0.9825540191568518</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.8875573005238256</v>
+      </c>
+      <c r="D9">
+        <v>0.9050274579205634</v>
+      </c>
+      <c r="E9">
+        <v>0.9088152843535782</v>
+      </c>
+      <c r="F9">
+        <v>0.8507576190914946</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.044923609578788</v>
+      </c>
+      <c r="J9">
+        <v>0.9178175619489016</v>
+      </c>
+      <c r="K9">
+        <v>0.9198754596867725</v>
+      </c>
+      <c r="L9">
+        <v>0.9235840109608562</v>
+      </c>
+      <c r="M9">
+        <v>0.8668460707880956</v>
+      </c>
+      <c r="N9">
+        <v>0.9734823265983693</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.863569447250671</v>
+      </c>
+      <c r="D10">
+        <v>0.8841278628694863</v>
+      </c>
+      <c r="E10">
+        <v>0.8887389548855975</v>
+      </c>
+      <c r="F10">
+        <v>0.81864236816953</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.044587919160615</v>
+      </c>
+      <c r="J10">
+        <v>0.89847913269296</v>
+      </c>
+      <c r="K10">
+        <v>0.9009600487942874</v>
+      </c>
+      <c r="L10">
+        <v>0.9054565818339428</v>
+      </c>
+      <c r="M10">
+        <v>0.8372944969267275</v>
+      </c>
+      <c r="N10">
+        <v>0.9663884817762013</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.8519585285669415</v>
+      </c>
+      <c r="D11">
+        <v>0.8740430896800646</v>
+      </c>
+      <c r="E11">
+        <v>0.879060132150856</v>
+      </c>
+      <c r="F11">
+        <v>0.8028829390921348</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.0444161704399</v>
+      </c>
+      <c r="J11">
+        <v>0.889113155234818</v>
+      </c>
+      <c r="K11">
+        <v>0.8918077822751207</v>
+      </c>
+      <c r="L11">
+        <v>0.8966903981779426</v>
+      </c>
+      <c r="M11">
+        <v>0.8228079381531135</v>
+      </c>
+      <c r="N11">
+        <v>0.9629628416235216</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.8474112708057925</v>
+      </c>
+      <c r="D12">
+        <v>0.8700993505834361</v>
+      </c>
+      <c r="E12">
+        <v>0.8752768379166271</v>
+      </c>
+      <c r="F12">
+        <v>0.796666250811412</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.044348406001364</v>
+      </c>
+      <c r="J12">
+        <v>0.8854443999813757</v>
+      </c>
+      <c r="K12">
+        <v>0.8882244265223045</v>
+      </c>
+      <c r="L12">
+        <v>0.893259184886982</v>
+      </c>
+      <c r="M12">
+        <v>0.8170970282764654</v>
+      </c>
+      <c r="N12">
+        <v>0.9616232527172976</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.8483983466283121</v>
+      </c>
+      <c r="D13">
+        <v>0.8709551372611608</v>
+      </c>
+      <c r="E13">
+        <v>0.8760977243900179</v>
+      </c>
+      <c r="F13">
+        <v>0.7980179840551642</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.044363121405786</v>
+      </c>
+      <c r="J13">
+        <v>0.8862408085070274</v>
+      </c>
+      <c r="K13">
+        <v>0.8890022136119522</v>
+      </c>
+      <c r="L13">
+        <v>0.89400389940445</v>
+      </c>
+      <c r="M13">
+        <v>0.8183385922974487</v>
+      </c>
+      <c r="N13">
+        <v>0.9619139319514493</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.8515878074720099</v>
+      </c>
+      <c r="D14">
+        <v>0.8737214469399265</v>
+      </c>
+      <c r="E14">
+        <v>0.8787515382482631</v>
+      </c>
+      <c r="F14">
+        <v>0.8023771041334783</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.044410650012188</v>
+      </c>
+      <c r="J14">
+        <v>0.8888140685944403</v>
+      </c>
+      <c r="K14">
+        <v>0.8915156212754263</v>
+      </c>
+      <c r="L14">
+        <v>0.8964106203090425</v>
+      </c>
+      <c r="M14">
+        <v>0.8223431732016514</v>
+      </c>
+      <c r="N14">
+        <v>0.9628535840224922</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.8535199803236833</v>
+      </c>
+      <c r="D15">
+        <v>0.8753980674473437</v>
+      </c>
+      <c r="E15">
+        <v>0.8803602098806581</v>
+      </c>
+      <c r="F15">
+        <v>0.8050116021689875</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.044439407833738</v>
+      </c>
+      <c r="J15">
+        <v>0.8903728603251315</v>
+      </c>
+      <c r="K15">
+        <v>0.8930383876754261</v>
+      </c>
+      <c r="L15">
+        <v>0.8978688858788748</v>
+      </c>
+      <c r="M15">
+        <v>0.8247639260803825</v>
+      </c>
+      <c r="N15">
+        <v>0.9634231132373448</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.8643103936695291</v>
+      </c>
+      <c r="D16">
+        <v>0.8847721312888707</v>
+      </c>
+      <c r="E16">
+        <v>0.8893574924073145</v>
+      </c>
+      <c r="F16">
+        <v>0.819642849045384</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.044598761177637</v>
+      </c>
+      <c r="J16">
+        <v>0.8990767196708496</v>
+      </c>
+      <c r="K16">
+        <v>0.901544203680246</v>
+      </c>
+      <c r="L16">
+        <v>0.9060162100819055</v>
+      </c>
+      <c r="M16">
+        <v>0.838214568367121</v>
+      </c>
+      <c r="N16">
+        <v>0.9666073096985169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.8707216689334426</v>
+      </c>
+      <c r="D17">
+        <v>0.8903503638408216</v>
+      </c>
+      <c r="E17">
+        <v>0.8947139165628307</v>
+      </c>
+      <c r="F17">
+        <v>0.828275678436978</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.044691650831722</v>
+      </c>
+      <c r="J17">
+        <v>0.9042469502650232</v>
+      </c>
+      <c r="K17">
+        <v>0.9065992077942016</v>
+      </c>
+      <c r="L17">
+        <v>0.910859514976703</v>
+      </c>
+      <c r="M17">
+        <v>0.8461552668192208</v>
+      </c>
+      <c r="N17">
+        <v>0.9685017282170498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.8743473971358248</v>
+      </c>
+      <c r="D18">
+        <v>0.8935077251210128</v>
+      </c>
+      <c r="E18">
+        <v>0.897746486440567</v>
+      </c>
+      <c r="F18">
+        <v>0.8331393948448566</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.044743285667331</v>
+      </c>
+      <c r="J18">
+        <v>0.9071703325779061</v>
+      </c>
+      <c r="K18">
+        <v>0.9094582061186516</v>
+      </c>
+      <c r="L18">
+        <v>0.9135991953638147</v>
+      </c>
+      <c r="M18">
+        <v>0.8506302527457279</v>
+      </c>
+      <c r="N18">
+        <v>0.9695737298961681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.8755655785116554</v>
+      </c>
+      <c r="D19">
+        <v>0.8945689814677941</v>
+      </c>
+      <c r="E19">
+        <v>0.8987659169881159</v>
+      </c>
+      <c r="F19">
+        <v>0.8347706756898245</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.044760460044801</v>
+      </c>
+      <c r="J19">
+        <v>0.9081524479384745</v>
+      </c>
+      <c r="K19">
+        <v>0.9104188137597394</v>
+      </c>
+      <c r="L19">
+        <v>0.9145197772705256</v>
+      </c>
+      <c r="M19">
+        <v>0.8521313292820787</v>
+      </c>
+      <c r="N19">
+        <v>0.9699339967684169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.8700458763134515</v>
+      </c>
+      <c r="D20">
+        <v>0.8897620865055861</v>
+      </c>
+      <c r="E20">
+        <v>0.8941489497733461</v>
+      </c>
+      <c r="F20">
+        <v>0.8273677073906447</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.044681948034609</v>
+      </c>
+      <c r="J20">
+        <v>0.9037020242123953</v>
+      </c>
+      <c r="K20">
+        <v>0.9060663438428377</v>
+      </c>
+      <c r="L20">
+        <v>0.910348922072082</v>
+      </c>
+      <c r="M20">
+        <v>0.8453199566484088</v>
+      </c>
+      <c r="N20">
+        <v>0.9683019692319145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.8506555827250404</v>
+      </c>
+      <c r="D21">
+        <v>0.8729127330581836</v>
+      </c>
+      <c r="E21">
+        <v>0.8779756619378069</v>
+      </c>
+      <c r="F21">
+        <v>0.8011043532903054</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.044396763635349</v>
+      </c>
+      <c r="J21">
+        <v>0.8880619669291313</v>
+      </c>
+      <c r="K21">
+        <v>0.8907809635907826</v>
+      </c>
+      <c r="L21">
+        <v>0.8957071174757193</v>
+      </c>
+      <c r="M21">
+        <v>0.8211738244894307</v>
+      </c>
+      <c r="N21">
+        <v>0.9625788773571073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.8370627174866434</v>
+      </c>
+      <c r="D22">
+        <v>0.8611368255771571</v>
+      </c>
+      <c r="E22">
+        <v>0.8666827094349857</v>
+      </c>
+      <c r="F22">
+        <v>0.782413912383137</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.044194488544656</v>
+      </c>
+      <c r="J22">
+        <v>0.8770939030130285</v>
+      </c>
+      <c r="K22">
+        <v>0.8800720348222846</v>
+      </c>
+      <c r="L22">
+        <v>0.8854551638517689</v>
+      </c>
+      <c r="M22">
+        <v>0.8040134982193688</v>
+      </c>
+      <c r="N22">
+        <v>0.958579593844418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.8444250944531119</v>
+      </c>
+      <c r="D23">
+        <v>0.8675113227901688</v>
+      </c>
+      <c r="E23">
+        <v>0.8727946414682595</v>
+      </c>
+      <c r="F23">
+        <v>0.7925689704264538</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.044303897290665</v>
+      </c>
+      <c r="J23">
+        <v>0.8830349491267276</v>
+      </c>
+      <c r="K23">
+        <v>0.8858715974083234</v>
+      </c>
+      <c r="L23">
+        <v>0.891006571363086</v>
+      </c>
+      <c r="M23">
+        <v>0.8133343777039812</v>
+      </c>
+      <c r="N23">
+        <v>0.9607442415370202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.8703515862485963</v>
+      </c>
+      <c r="D24">
+        <v>0.8900281984442447</v>
+      </c>
+      <c r="E24">
+        <v>0.8944045146630744</v>
+      </c>
+      <c r="F24">
+        <v>0.8277785050823714</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.04468634017905</v>
+      </c>
+      <c r="J24">
+        <v>0.9039485353166593</v>
+      </c>
+      <c r="K24">
+        <v>0.9063073959694113</v>
+      </c>
+      <c r="L24">
+        <v>0.9105798981457667</v>
+      </c>
+      <c r="M24">
+        <v>0.8456978763165208</v>
+      </c>
+      <c r="N24">
+        <v>0.9683923326645169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.8960104594464433</v>
+      </c>
+      <c r="D25">
+        <v>0.9124120256491474</v>
+      </c>
+      <c r="E25">
+        <v>0.9159141670412058</v>
+      </c>
+      <c r="F25">
+        <v>0.8619558669468547</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.045030265302785</v>
+      </c>
+      <c r="J25">
+        <v>0.9246270358793426</v>
+      </c>
+      <c r="K25">
+        <v>0.9265414270448943</v>
+      </c>
+      <c r="L25">
+        <v>0.9299749773144638</v>
+      </c>
+      <c r="M25">
+        <v>0.8771561861835343</v>
+      </c>
+      <c r="N25">
+        <v>0.9759847238044923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9140526582972484</v>
+        <v>1.007233763412072</v>
       </c>
       <c r="D2">
-        <v>0.9282055056387097</v>
+        <v>1.009913254666529</v>
       </c>
       <c r="E2">
-        <v>0.9311045951855772</v>
+        <v>1.009822179915484</v>
       </c>
       <c r="F2">
-        <v>0.8856897368278756</v>
+        <v>1.005418171149548</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.9391475667161768</v>
+        <v>1.012506593353203</v>
       </c>
       <c r="K2">
-        <v>0.9407647606545282</v>
+        <v>1.012785033388607</v>
       </c>
       <c r="L2">
-        <v>0.9436152013347201</v>
+        <v>1.012694234278072</v>
       </c>
       <c r="M2">
-        <v>0.8990102898461119</v>
+        <v>1.008303619376536</v>
       </c>
       <c r="N2">
-        <v>0.9813237856062564</v>
+        <v>1.00796475591635</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9260989590031795</v>
+        <v>1.009287095432226</v>
       </c>
       <c r="D3">
-        <v>0.9387733405390363</v>
+        <v>1.01176408710081</v>
       </c>
       <c r="E3">
-        <v>0.9412742882979804</v>
+        <v>1.011604225035834</v>
       </c>
       <c r="F3">
-        <v>0.9014296559503037</v>
+        <v>1.008140331328463</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.9488291841512652</v>
+        <v>1.014185389888849</v>
       </c>
       <c r="K3">
-        <v>0.9502545858235407</v>
+        <v>1.014436890927128</v>
       </c>
       <c r="L3">
-        <v>0.9527181318525563</v>
+        <v>1.01427747657216</v>
       </c>
       <c r="M3">
-        <v>0.9135011612409429</v>
+        <v>1.010823321684793</v>
       </c>
       <c r="N3">
-        <v>0.9848825502881207</v>
+        <v>1.008557101822973</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9334882017800014</v>
+        <v>1.010609914077341</v>
       </c>
       <c r="D4">
-        <v>0.9452642403163556</v>
+        <v>1.012956425105847</v>
       </c>
       <c r="E4">
-        <v>0.9475225192737227</v>
+        <v>1.012752198477128</v>
       </c>
       <c r="F4">
-        <v>0.9110496631400303</v>
+        <v>1.009894655252362</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9547611694462076</v>
+        <v>1.015265863463752</v>
       </c>
       <c r="K4">
-        <v>0.9560714777571315</v>
+        <v>1.015500096321514</v>
       </c>
       <c r="L4">
-        <v>0.9582984718263398</v>
+        <v>1.015296411973174</v>
       </c>
       <c r="M4">
-        <v>0.9223550733292073</v>
+        <v>1.012446481218014</v>
       </c>
       <c r="N4">
-        <v>0.9870611476374678</v>
+        <v>1.008937390812613</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9365074422037021</v>
+        <v>1.011164667208386</v>
       </c>
       <c r="D5">
-        <v>0.9479182173258517</v>
+        <v>1.013456451286344</v>
       </c>
       <c r="E5">
-        <v>0.9500776504982069</v>
+        <v>1.013233607139253</v>
       </c>
       <c r="F5">
-        <v>0.9149736687579282</v>
+        <v>1.010630526950308</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628352</v>
       </c>
       <c r="J5">
-        <v>0.9571832745749553</v>
+        <v>1.015718730223423</v>
       </c>
       <c r="K5">
-        <v>0.9584471068636139</v>
+        <v>1.015945741712944</v>
       </c>
       <c r="L5">
-        <v>0.9605775879441445</v>
+        <v>1.015723475712681</v>
       </c>
       <c r="M5">
-        <v>0.9259657589261299</v>
+        <v>1.013127169341356</v>
       </c>
       <c r="N5">
-        <v>0.9879500692795931</v>
+        <v>1.009096556300793</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9370095290399437</v>
+        <v>1.011257733956607</v>
       </c>
       <c r="D6">
-        <v>0.9483596616023419</v>
+        <v>1.013540336460009</v>
       </c>
       <c r="E6">
-        <v>0.9505026736234946</v>
+        <v>1.013314368262514</v>
       </c>
       <c r="F6">
-        <v>0.9156258605459416</v>
+        <v>1.01075398803822</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9575859580039117</v>
+        <v>1.015794689376722</v>
       </c>
       <c r="K6">
-        <v>0.9588420923674557</v>
+        <v>1.016020490579834</v>
       </c>
       <c r="L6">
-        <v>0.9609565309835799</v>
+        <v>1.015795106326709</v>
       </c>
       <c r="M6">
-        <v>0.9265658216881409</v>
+        <v>1.013241362293345</v>
       </c>
       <c r="N6">
-        <v>0.9880978139186084</v>
+        <v>1.009123239652299</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9335288758284881</v>
+        <v>1.01061733201275</v>
       </c>
       <c r="D7">
-        <v>0.9452999868348156</v>
+        <v>1.012963111283719</v>
       </c>
       <c r="E7">
-        <v>0.9475569330309135</v>
+        <v>1.012758635757744</v>
       </c>
       <c r="F7">
-        <v>0.9111025506079338</v>
+        <v>1.009904494403763</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9547938059803502</v>
+        <v>1.015271920013607</v>
       </c>
       <c r="K7">
-        <v>0.95610348606764</v>
+        <v>1.015506056230265</v>
       </c>
       <c r="L7">
-        <v>0.9583291794384207</v>
+        <v>1.015302123479047</v>
       </c>
       <c r="M7">
-        <v>0.9224037414074756</v>
+        <v>1.01245558317387</v>
       </c>
       <c r="N7">
-        <v>0.9870731280813285</v>
+        <v>1.008939520358412</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9182142572109854</v>
+        <v>1.007928923536864</v>
       </c>
       <c r="D8">
-        <v>0.9318543384264202</v>
+        <v>1.010539862416142</v>
       </c>
       <c r="E8">
-        <v>0.93461550659476</v>
+        <v>1.010425509666386</v>
       </c>
       <c r="F8">
-        <v>0.8911359973716274</v>
+        <v>1.006339639084466</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9424936409848433</v>
+        <v>1.01307517316777</v>
       </c>
       <c r="K8">
-        <v>0.9440439875891834</v>
+        <v>1.013344474725078</v>
       </c>
       <c r="L8">
-        <v>0.9467605744803352</v>
+        <v>1.013230459314929</v>
       </c>
       <c r="M8">
-        <v>0.9040248114571685</v>
+        <v>1.009156696789249</v>
       </c>
       <c r="N8">
-        <v>0.9825540191568518</v>
+        <v>1.008165568793856</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8875573005238256</v>
+        <v>1.003145426914804</v>
       </c>
       <c r="D9">
-        <v>0.9050274579205634</v>
+        <v>1.006228032427491</v>
       </c>
       <c r="E9">
-        <v>0.9088152843535782</v>
+        <v>1.006273668063492</v>
       </c>
       <c r="F9">
-        <v>0.8507576190914946</v>
+        <v>1.000001172251527</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9178175619489016</v>
+        <v>1.009158333178679</v>
       </c>
       <c r="K9">
-        <v>0.9198754596867725</v>
+        <v>1.009490890245721</v>
       </c>
       <c r="L9">
-        <v>0.9235840109608562</v>
+        <v>1.009536367171993</v>
       </c>
       <c r="M9">
-        <v>0.8668460707880956</v>
+        <v>1.003285835256702</v>
       </c>
       <c r="N9">
-        <v>0.9734823265983693</v>
+        <v>1.006778356089766</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.863569447250671</v>
+        <v>0.9999231654433728</v>
       </c>
       <c r="D10">
-        <v>0.8841278628694863</v>
+        <v>1.003323481638483</v>
       </c>
       <c r="E10">
-        <v>0.8887389548855975</v>
+        <v>1.003476664060879</v>
       </c>
       <c r="F10">
-        <v>0.81864236816953</v>
+        <v>0.9957340015561771</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.89847913269296</v>
+        <v>1.00651439031437</v>
       </c>
       <c r="K10">
-        <v>0.9009600487942874</v>
+        <v>1.006890041508089</v>
       </c>
       <c r="L10">
-        <v>0.9054565818339428</v>
+        <v>1.007042636510944</v>
       </c>
       <c r="M10">
-        <v>0.8372944969267275</v>
+        <v>0.9993299166240076</v>
       </c>
       <c r="N10">
-        <v>0.9663884817762013</v>
+        <v>1.005837174268722</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8519585285669415</v>
+        <v>0.9985195009428353</v>
       </c>
       <c r="D11">
-        <v>0.8740430896800646</v>
+        <v>1.002058230093306</v>
       </c>
       <c r="E11">
-        <v>0.879060132150856</v>
+        <v>1.002258213239049</v>
       </c>
       <c r="F11">
-        <v>0.8028829390921348</v>
+        <v>0.9938756573484834</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.889113155234818</v>
+        <v>1.005361353862241</v>
       </c>
       <c r="K11">
-        <v>0.8918077822751207</v>
+        <v>1.005755897172605</v>
       </c>
       <c r="L11">
-        <v>0.8966903981779426</v>
+        <v>1.005955082248305</v>
       </c>
       <c r="M11">
-        <v>0.8228079381531135</v>
+        <v>0.9976062853082813</v>
       </c>
       <c r="N11">
-        <v>0.9629628416235216</v>
+        <v>1.005425605319509</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8474112708057925</v>
+        <v>0.9979968113523644</v>
       </c>
       <c r="D12">
-        <v>0.8700993505834361</v>
+        <v>1.001587085480179</v>
       </c>
       <c r="E12">
-        <v>0.8752768379166271</v>
+        <v>1.001804489229526</v>
       </c>
       <c r="F12">
-        <v>0.796666250811412</v>
+        <v>0.9931837220361893</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.8854443999813757</v>
+        <v>1.004931797492527</v>
       </c>
       <c r="K12">
-        <v>0.8882244265223045</v>
+        <v>1.005333394152455</v>
       </c>
       <c r="L12">
-        <v>0.893259184886982</v>
+        <v>1.005549917675707</v>
       </c>
       <c r="M12">
-        <v>0.8170970282764654</v>
+        <v>0.9969643836886319</v>
       </c>
       <c r="N12">
-        <v>0.9616232527172976</v>
+        <v>1.005272112154014</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8483983466283121</v>
+        <v>0.998108989854532</v>
       </c>
       <c r="D13">
-        <v>0.8709551372611608</v>
+        <v>1.001688201332467</v>
       </c>
       <c r="E13">
-        <v>0.8760977243900179</v>
+        <v>1.00190186661117</v>
       </c>
       <c r="F13">
-        <v>0.7980179840551642</v>
+        <v>0.9933322208667887</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405786</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.8862408085070274</v>
+        <v>1.005023996734401</v>
       </c>
       <c r="K13">
-        <v>0.8890022136119522</v>
+        <v>1.005424078780853</v>
       </c>
       <c r="L13">
-        <v>0.89400389940445</v>
+        <v>1.005636881635679</v>
       </c>
       <c r="M13">
-        <v>0.8183385922974487</v>
+        <v>0.9971021502599321</v>
       </c>
       <c r="N13">
-        <v>0.9619139319514493</v>
+        <v>1.00530506513454</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8515878074720099</v>
+        <v>0.9984763221568785</v>
       </c>
       <c r="D14">
-        <v>0.8737214469399265</v>
+        <v>1.002019309300045</v>
       </c>
       <c r="E14">
-        <v>0.8787515382482631</v>
+        <v>1.002220731678253</v>
       </c>
       <c r="F14">
-        <v>0.8023771041334783</v>
+        <v>0.9938184960838859</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.8888140685944403</v>
+        <v>1.005325872665321</v>
       </c>
       <c r="K14">
-        <v>0.8915156212754263</v>
+        <v>1.005720998267353</v>
       </c>
       <c r="L14">
-        <v>0.8964106203090425</v>
+        <v>1.005921615865151</v>
       </c>
       <c r="M14">
-        <v>0.8223431732016514</v>
+        <v>0.997553259913063</v>
       </c>
       <c r="N14">
-        <v>0.9628535840224922</v>
+        <v>1.005412930209644</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8535199803236833</v>
+        <v>0.9987024733256592</v>
       </c>
       <c r="D15">
-        <v>0.8753980674473437</v>
+        <v>1.002223159157142</v>
       </c>
       <c r="E15">
-        <v>0.8803602098806581</v>
+        <v>1.00241704320311</v>
       </c>
       <c r="F15">
-        <v>0.8050116021689875</v>
+        <v>0.9941178838525467</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.8903728603251315</v>
+        <v>1.005511699354268</v>
       </c>
       <c r="K15">
-        <v>0.8930383876754261</v>
+        <v>1.005903775928103</v>
       </c>
       <c r="L15">
-        <v>0.8978688858788748</v>
+        <v>1.006096890186832</v>
       </c>
       <c r="M15">
-        <v>0.8247639260803825</v>
+        <v>0.9978309805352872</v>
       </c>
       <c r="N15">
-        <v>0.9634231132373448</v>
+        <v>1.005479307154862</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8643103936695291</v>
+        <v>1.000016141277715</v>
       </c>
       <c r="D16">
-        <v>0.8847721312888707</v>
+        <v>1.003407289689546</v>
       </c>
       <c r="E16">
-        <v>0.8893574924073145</v>
+        <v>1.003557371151442</v>
       </c>
       <c r="F16">
-        <v>0.819642849045384</v>
+        <v>0.9958571041249777</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.8990767196708496</v>
+        <v>1.006590737850094</v>
       </c>
       <c r="K16">
-        <v>0.901544203680246</v>
+        <v>1.006965140220006</v>
       </c>
       <c r="L16">
-        <v>0.9060162100819055</v>
+        <v>1.007114647702511</v>
       </c>
       <c r="M16">
-        <v>0.838214568367121</v>
+        <v>0.9994440778352311</v>
       </c>
       <c r="N16">
-        <v>0.9666073096985169</v>
+        <v>1.005864402752942</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8707216689334426</v>
+        <v>1.000837890047495</v>
       </c>
       <c r="D17">
-        <v>0.8903503638408216</v>
+        <v>1.004148012526777</v>
       </c>
       <c r="E17">
-        <v>0.8947139165628307</v>
+        <v>1.0042706812522</v>
       </c>
       <c r="F17">
-        <v>0.828275678436978</v>
+        <v>0.9969451783998167</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9042469502650232</v>
+        <v>1.007265371433142</v>
       </c>
       <c r="K17">
-        <v>0.9065992077942016</v>
+        <v>1.007628750151268</v>
       </c>
       <c r="L17">
-        <v>0.910859514976703</v>
+        <v>1.007750960917956</v>
       </c>
       <c r="M17">
-        <v>0.8461552668192208</v>
+        <v>1.000453025260634</v>
       </c>
       <c r="N17">
-        <v>0.9685017282170498</v>
+        <v>1.006104875074253</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8743473971358248</v>
+        <v>1.001316394315354</v>
       </c>
       <c r="D18">
-        <v>0.8935077251210128</v>
+        <v>1.004579336601008</v>
       </c>
       <c r="E18">
-        <v>0.897746486440567</v>
+        <v>1.004686038224454</v>
       </c>
       <c r="F18">
-        <v>0.8331393948448566</v>
+        <v>0.9975788125116317</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9071703325779061</v>
+        <v>1.007658085910057</v>
       </c>
       <c r="K18">
-        <v>0.9094582061186516</v>
+        <v>1.008015057034474</v>
       </c>
       <c r="L18">
-        <v>0.9135991953638147</v>
+        <v>1.008121365968804</v>
       </c>
       <c r="M18">
-        <v>0.8506302527457279</v>
+        <v>1.001040499793651</v>
       </c>
       <c r="N18">
-        <v>0.9695737298961681</v>
+        <v>1.006244750435481</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8755655785116554</v>
+        <v>1.001479416177004</v>
       </c>
       <c r="D19">
-        <v>0.8945689814677941</v>
+        <v>1.004726284779849</v>
       </c>
       <c r="E19">
-        <v>0.8987659169881159</v>
+        <v>1.004827545758709</v>
       </c>
       <c r="F19">
-        <v>0.8347706756898245</v>
+        <v>0.99779469414251</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9081524479384745</v>
+        <v>1.007791858856404</v>
       </c>
       <c r="K19">
-        <v>0.9104188137597394</v>
+        <v>1.00814664890886</v>
       </c>
       <c r="L19">
-        <v>0.9145197772705256</v>
+        <v>1.008247539050799</v>
       </c>
       <c r="M19">
-        <v>0.8521313292820787</v>
+        <v>1.001240641009048</v>
       </c>
       <c r="N19">
-        <v>0.9699339967684169</v>
+        <v>1.006292378869608</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8700458763134515</v>
+        <v>1.000749808057148</v>
       </c>
       <c r="D20">
-        <v>0.8897620865055861</v>
+        <v>1.004068615447174</v>
       </c>
       <c r="E20">
-        <v>0.8941489497733461</v>
+        <v>1.004194222981725</v>
       </c>
       <c r="F20">
-        <v>0.8273677073906447</v>
+        <v>0.9968285444312279</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.9037020242123953</v>
+        <v>1.007193071390838</v>
       </c>
       <c r="K20">
-        <v>0.9060663438428377</v>
+        <v>1.007557630526282</v>
       </c>
       <c r="L20">
-        <v>0.910348922072082</v>
+        <v>1.007682767903857</v>
       </c>
       <c r="M20">
-        <v>0.8453199566484088</v>
+        <v>1.000344881465634</v>
       </c>
       <c r="N20">
-        <v>0.9683019692319145</v>
+        <v>1.0060791149003</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8506555827250404</v>
+        <v>0.9983681883574533</v>
       </c>
       <c r="D21">
-        <v>0.8729127330581836</v>
+        <v>1.001921838967304</v>
       </c>
       <c r="E21">
-        <v>0.8779756619378069</v>
+        <v>1.002126865545669</v>
       </c>
       <c r="F21">
-        <v>0.8011043532903054</v>
+        <v>0.9936753466134768</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.8880619669291313</v>
+        <v>1.005237013008493</v>
       </c>
       <c r="K21">
-        <v>0.8907809635907826</v>
+        <v>1.005633597157727</v>
       </c>
       <c r="L21">
-        <v>0.8957071174757193</v>
+        <v>1.005837802090324</v>
       </c>
       <c r="M21">
-        <v>0.8211738244894307</v>
+        <v>0.9974204659168552</v>
       </c>
       <c r="N21">
-        <v>0.9625788773571073</v>
+        <v>1.005381183798786</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8370627174866434</v>
+        <v>0.9968631906893453</v>
       </c>
       <c r="D22">
-        <v>0.8611368255771571</v>
+        <v>1.000565264582737</v>
       </c>
       <c r="E22">
-        <v>0.8666827094349857</v>
+        <v>1.000820438517567</v>
       </c>
       <c r="F22">
-        <v>0.782413912383137</v>
+        <v>0.9916831474676434</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.8770939030130285</v>
+        <v>1.003999810658025</v>
       </c>
       <c r="K22">
-        <v>0.8800720348222846</v>
+        <v>1.004416738918358</v>
       </c>
       <c r="L22">
-        <v>0.8854551638517689</v>
+        <v>1.004670847506421</v>
       </c>
       <c r="M22">
-        <v>0.8040134982193688</v>
+        <v>0.9955720865436296</v>
       </c>
       <c r="N22">
-        <v>0.958579593844418</v>
+        <v>1.004938784099908</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8444250944531119</v>
+        <v>0.9976617515572058</v>
       </c>
       <c r="D23">
-        <v>0.8675113227901688</v>
+        <v>1.001285068720396</v>
       </c>
       <c r="E23">
-        <v>0.8727946414682595</v>
+        <v>1.001513637737121</v>
       </c>
       <c r="F23">
-        <v>0.7925689704264538</v>
+        <v>0.9927401879471101</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.8830349491267276</v>
+        <v>1.00465638420563</v>
       </c>
       <c r="K23">
-        <v>0.8858715974083234</v>
+        <v>1.005062507507653</v>
       </c>
       <c r="L23">
-        <v>0.891006571363086</v>
+        <v>1.005290142572135</v>
       </c>
       <c r="M23">
-        <v>0.8133343777039812</v>
+        <v>0.9965528862430495</v>
       </c>
       <c r="N23">
-        <v>0.9607442415370202</v>
+        <v>1.005173652397911</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8703515862485963</v>
+        <v>1.000789611011589</v>
       </c>
       <c r="D24">
-        <v>0.8900281984442447</v>
+        <v>1.004104493814723</v>
       </c>
       <c r="E24">
-        <v>0.8944045146630744</v>
+        <v>1.004228773359168</v>
       </c>
       <c r="F24">
-        <v>0.8277785050823714</v>
+        <v>0.9968812494534719</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9039485353166593</v>
+        <v>1.007225743100769</v>
       </c>
       <c r="K24">
-        <v>0.9063073959694113</v>
+        <v>1.007589768787545</v>
       </c>
       <c r="L24">
-        <v>0.9105798981457667</v>
+        <v>1.007713583694289</v>
       </c>
       <c r="M24">
-        <v>0.8456978763165208</v>
+        <v>1.000393750163363</v>
       </c>
       <c r="N24">
-        <v>0.9683923326645169</v>
+        <v>1.006090756012724</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8960104594464433</v>
+        <v>1.00438777342681</v>
       </c>
       <c r="D25">
-        <v>0.9124120256491474</v>
+        <v>1.007347887935682</v>
       </c>
       <c r="E25">
-        <v>0.9159141670412058</v>
+        <v>1.007352013251211</v>
       </c>
       <c r="F25">
-        <v>0.8619558669468547</v>
+        <v>1.001646885398627</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9246270358793426</v>
+        <v>1.010176558077594</v>
       </c>
       <c r="K25">
-        <v>0.9265414270448943</v>
+        <v>1.010492603475836</v>
       </c>
       <c r="L25">
-        <v>0.9299749773144638</v>
+        <v>1.010496715010997</v>
       </c>
       <c r="M25">
-        <v>0.8771561861835343</v>
+        <v>1.004810763952433</v>
       </c>
       <c r="N25">
-        <v>0.9759847238044923</v>
+        <v>1.007139822571722</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007233763412072</v>
+        <v>0.9140526582972479</v>
       </c>
       <c r="D2">
-        <v>1.009913254666529</v>
+        <v>0.9282055056387092</v>
       </c>
       <c r="E2">
-        <v>1.009822179915484</v>
+        <v>0.931104595185577</v>
       </c>
       <c r="F2">
-        <v>1.005418171149548</v>
+        <v>0.8856897368278751</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.012506593353203</v>
+        <v>0.9391475667161765</v>
       </c>
       <c r="K2">
-        <v>1.012785033388607</v>
+        <v>0.9407647606545276</v>
       </c>
       <c r="L2">
-        <v>1.012694234278072</v>
+        <v>0.9436152013347198</v>
       </c>
       <c r="M2">
-        <v>1.008303619376536</v>
+        <v>0.8990102898461112</v>
       </c>
       <c r="N2">
-        <v>1.00796475591635</v>
+        <v>0.9813237856062563</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009287095432226</v>
+        <v>0.9260989590031796</v>
       </c>
       <c r="D3">
-        <v>1.01176408710081</v>
+        <v>0.9387733405390364</v>
       </c>
       <c r="E3">
-        <v>1.011604225035834</v>
+        <v>0.9412742882979807</v>
       </c>
       <c r="F3">
-        <v>1.008140331328463</v>
+        <v>0.9014296559503033</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.014185389888849</v>
+        <v>0.9488291841512654</v>
       </c>
       <c r="K3">
-        <v>1.014436890927128</v>
+        <v>0.9502545858235407</v>
       </c>
       <c r="L3">
-        <v>1.01427747657216</v>
+        <v>0.9527181318525565</v>
       </c>
       <c r="M3">
-        <v>1.010823321684793</v>
+        <v>0.9135011612409426</v>
       </c>
       <c r="N3">
-        <v>1.008557101822973</v>
+        <v>0.9848825502881207</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010609914077341</v>
+        <v>0.9334882017800002</v>
       </c>
       <c r="D4">
-        <v>1.012956425105847</v>
+        <v>0.9452642403163549</v>
       </c>
       <c r="E4">
-        <v>1.012752198477128</v>
+        <v>0.9475225192737218</v>
       </c>
       <c r="F4">
-        <v>1.009894655252362</v>
+        <v>0.9110496631400289</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.015265863463752</v>
+        <v>0.9547611694462064</v>
       </c>
       <c r="K4">
-        <v>1.015500096321514</v>
+        <v>0.9560714777571309</v>
       </c>
       <c r="L4">
-        <v>1.015296411973174</v>
+        <v>0.9582984718263388</v>
       </c>
       <c r="M4">
-        <v>1.012446481218014</v>
+        <v>0.9223550733292059</v>
       </c>
       <c r="N4">
-        <v>1.008937390812613</v>
+        <v>0.9870611476374674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011164667208386</v>
+        <v>0.9365074422037021</v>
       </c>
       <c r="D5">
-        <v>1.013456451286344</v>
+        <v>0.9479182173258515</v>
       </c>
       <c r="E5">
-        <v>1.013233607139253</v>
+        <v>0.9500776504982067</v>
       </c>
       <c r="F5">
-        <v>1.010630526950308</v>
+        <v>0.9149736687579286</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628352</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.015718730223423</v>
+        <v>0.9571832745749553</v>
       </c>
       <c r="K5">
-        <v>1.015945741712944</v>
+        <v>0.958447106863614</v>
       </c>
       <c r="L5">
-        <v>1.015723475712681</v>
+        <v>0.9605775879441443</v>
       </c>
       <c r="M5">
-        <v>1.013127169341356</v>
+        <v>0.9259657589261302</v>
       </c>
       <c r="N5">
-        <v>1.009096556300793</v>
+        <v>0.9879500692795932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011257733956607</v>
+        <v>0.9370095290399455</v>
       </c>
       <c r="D6">
-        <v>1.013540336460009</v>
+        <v>0.9483596616023434</v>
       </c>
       <c r="E6">
-        <v>1.013314368262514</v>
+        <v>0.9505026736234962</v>
       </c>
       <c r="F6">
-        <v>1.01075398803822</v>
+        <v>0.915625860545943</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.015794689376722</v>
+        <v>0.9575859580039133</v>
       </c>
       <c r="K6">
-        <v>1.016020490579834</v>
+        <v>0.9588420923674571</v>
       </c>
       <c r="L6">
-        <v>1.015795106326709</v>
+        <v>0.9609565309835812</v>
       </c>
       <c r="M6">
-        <v>1.013241362293345</v>
+        <v>0.9265658216881424</v>
       </c>
       <c r="N6">
-        <v>1.009123239652299</v>
+        <v>0.9880978139186091</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01061733201275</v>
+        <v>0.9335288758284879</v>
       </c>
       <c r="D7">
-        <v>1.012963111283719</v>
+        <v>0.9452999868348151</v>
       </c>
       <c r="E7">
-        <v>1.012758635757744</v>
+        <v>0.9475569330309132</v>
       </c>
       <c r="F7">
-        <v>1.009904494403763</v>
+        <v>0.9111025506079325</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.015271920013607</v>
+        <v>0.9547938059803501</v>
       </c>
       <c r="K7">
-        <v>1.015506056230265</v>
+        <v>0.9561034860676397</v>
       </c>
       <c r="L7">
-        <v>1.015302123479047</v>
+        <v>0.9583291794384206</v>
       </c>
       <c r="M7">
-        <v>1.01245558317387</v>
+        <v>0.9224037414074747</v>
       </c>
       <c r="N7">
-        <v>1.008939520358412</v>
+        <v>0.9870731280813285</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007928923536864</v>
+        <v>0.9182142572109854</v>
       </c>
       <c r="D8">
-        <v>1.010539862416142</v>
+        <v>0.9318543384264205</v>
       </c>
       <c r="E8">
-        <v>1.010425509666386</v>
+        <v>0.9346155065947601</v>
       </c>
       <c r="F8">
-        <v>1.006339639084466</v>
+        <v>0.8911359973716274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.01307517316777</v>
+        <v>0.9424936409848435</v>
       </c>
       <c r="K8">
-        <v>1.013344474725078</v>
+        <v>0.9440439875891835</v>
       </c>
       <c r="L8">
-        <v>1.013230459314929</v>
+        <v>0.9467605744803353</v>
       </c>
       <c r="M8">
-        <v>1.009156696789249</v>
+        <v>0.9040248114571684</v>
       </c>
       <c r="N8">
-        <v>1.008165568793856</v>
+        <v>0.982554019156852</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003145426914804</v>
+        <v>0.8875573005238265</v>
       </c>
       <c r="D9">
-        <v>1.006228032427491</v>
+        <v>0.9050274579205638</v>
       </c>
       <c r="E9">
-        <v>1.006273668063492</v>
+        <v>0.9088152843535789</v>
       </c>
       <c r="F9">
-        <v>1.000001172251527</v>
+        <v>0.8507576190914957</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.009158333178679</v>
+        <v>0.9178175619489023</v>
       </c>
       <c r="K9">
-        <v>1.009490890245721</v>
+        <v>0.9198754596867732</v>
       </c>
       <c r="L9">
-        <v>1.009536367171993</v>
+        <v>0.9235840109608572</v>
       </c>
       <c r="M9">
-        <v>1.003285835256702</v>
+        <v>0.8668460707880966</v>
       </c>
       <c r="N9">
-        <v>1.006778356089766</v>
+        <v>0.9734823265983696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9999231654433728</v>
+        <v>0.8635694472506734</v>
       </c>
       <c r="D10">
-        <v>1.003323481638483</v>
+        <v>0.8841278628694887</v>
       </c>
       <c r="E10">
-        <v>1.003476664060879</v>
+        <v>0.8887389548855998</v>
       </c>
       <c r="F10">
-        <v>0.9957340015561771</v>
+        <v>0.8186423681695325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.00651439031437</v>
+        <v>0.8984791326929622</v>
       </c>
       <c r="K10">
-        <v>1.006890041508089</v>
+        <v>0.9009600487942898</v>
       </c>
       <c r="L10">
-        <v>1.007042636510944</v>
+        <v>0.905456581833945</v>
       </c>
       <c r="M10">
-        <v>0.9993299166240076</v>
+        <v>0.83729449692673</v>
       </c>
       <c r="N10">
-        <v>1.005837174268722</v>
+        <v>0.966388481776202</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9985195009428353</v>
+        <v>0.8519585285669428</v>
       </c>
       <c r="D11">
-        <v>1.002058230093306</v>
+        <v>0.8740430896800655</v>
       </c>
       <c r="E11">
-        <v>1.002258213239049</v>
+        <v>0.8790601321508571</v>
       </c>
       <c r="F11">
-        <v>0.9938756573484834</v>
+        <v>0.8028829390921361</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.005361353862241</v>
+        <v>0.8891131552348192</v>
       </c>
       <c r="K11">
-        <v>1.005755897172605</v>
+        <v>0.8918077822751216</v>
       </c>
       <c r="L11">
-        <v>1.005955082248305</v>
+        <v>0.8966903981779438</v>
       </c>
       <c r="M11">
-        <v>0.9976062853082813</v>
+        <v>0.8228079381531149</v>
       </c>
       <c r="N11">
-        <v>1.005425605319509</v>
+        <v>0.962962841623522</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9979968113523644</v>
+        <v>0.8474112708057934</v>
       </c>
       <c r="D12">
-        <v>1.001587085480179</v>
+        <v>0.8700993505834372</v>
       </c>
       <c r="E12">
-        <v>1.001804489229526</v>
+        <v>0.8752768379166284</v>
       </c>
       <c r="F12">
-        <v>0.9931837220361893</v>
+        <v>0.7966662508114136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.004931797492527</v>
+        <v>0.8854443999813768</v>
       </c>
       <c r="K12">
-        <v>1.005333394152455</v>
+        <v>0.8882244265223057</v>
       </c>
       <c r="L12">
-        <v>1.005549917675707</v>
+        <v>0.8932591848869831</v>
       </c>
       <c r="M12">
-        <v>0.9969643836886319</v>
+        <v>0.817097028276467</v>
       </c>
       <c r="N12">
-        <v>1.005272112154014</v>
+        <v>0.9616232527172981</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.998108989854532</v>
+        <v>0.8483983466283119</v>
       </c>
       <c r="D13">
-        <v>1.001688201332467</v>
+        <v>0.8709551372611608</v>
       </c>
       <c r="E13">
-        <v>1.00190186661117</v>
+        <v>0.876097724390018</v>
       </c>
       <c r="F13">
-        <v>0.9933322208667887</v>
+        <v>0.798017984055165</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.005023996734401</v>
+        <v>0.8862408085070271</v>
       </c>
       <c r="K13">
-        <v>1.005424078780853</v>
+        <v>0.8890022136119522</v>
       </c>
       <c r="L13">
-        <v>1.005636881635679</v>
+        <v>0.8940038994044501</v>
       </c>
       <c r="M13">
-        <v>0.9971021502599321</v>
+        <v>0.8183385922974491</v>
       </c>
       <c r="N13">
-        <v>1.00530506513454</v>
+        <v>0.9619139319514493</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9984763221568785</v>
+        <v>0.8515878074720111</v>
       </c>
       <c r="D14">
-        <v>1.002019309300045</v>
+        <v>0.8737214469399278</v>
       </c>
       <c r="E14">
-        <v>1.002220731678253</v>
+        <v>0.8787515382482645</v>
       </c>
       <c r="F14">
-        <v>0.9938184960838859</v>
+        <v>0.8023771041334797</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.005325872665321</v>
+        <v>0.8888140685944416</v>
       </c>
       <c r="K14">
-        <v>1.005720998267353</v>
+        <v>0.8915156212754277</v>
       </c>
       <c r="L14">
-        <v>1.005921615865151</v>
+        <v>0.8964106203090435</v>
       </c>
       <c r="M14">
-        <v>0.997553259913063</v>
+        <v>0.8223431732016526</v>
       </c>
       <c r="N14">
-        <v>1.005412930209644</v>
+        <v>0.9628535840224927</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9987024733256592</v>
+        <v>0.8535199803236851</v>
       </c>
       <c r="D15">
-        <v>1.002223159157142</v>
+        <v>0.8753980674473454</v>
       </c>
       <c r="E15">
-        <v>1.00241704320311</v>
+        <v>0.8803602098806599</v>
       </c>
       <c r="F15">
-        <v>0.9941178838525467</v>
+        <v>0.8050116021689903</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.005511699354268</v>
+        <v>0.8903728603251333</v>
       </c>
       <c r="K15">
-        <v>1.005903775928103</v>
+        <v>0.8930383876754278</v>
       </c>
       <c r="L15">
-        <v>1.006096890186832</v>
+        <v>0.8978688858788767</v>
       </c>
       <c r="M15">
-        <v>0.9978309805352872</v>
+        <v>0.824763926080385</v>
       </c>
       <c r="N15">
-        <v>1.005479307154862</v>
+        <v>0.9634231132373454</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000016141277715</v>
+        <v>0.8643103936695278</v>
       </c>
       <c r="D16">
-        <v>1.003407289689546</v>
+        <v>0.8847721312888694</v>
       </c>
       <c r="E16">
-        <v>1.003557371151442</v>
+        <v>0.8893574924073134</v>
       </c>
       <c r="F16">
-        <v>0.9958571041249777</v>
+        <v>0.8196428490453824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.006590737850094</v>
+        <v>0.8990767196708481</v>
       </c>
       <c r="K16">
-        <v>1.006965140220006</v>
+        <v>0.9015442036802449</v>
       </c>
       <c r="L16">
-        <v>1.007114647702511</v>
+        <v>0.9060162100819046</v>
       </c>
       <c r="M16">
-        <v>0.9994440778352311</v>
+        <v>0.8382145683671197</v>
       </c>
       <c r="N16">
-        <v>1.005864402752942</v>
+        <v>0.9666073096985165</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000837890047495</v>
+        <v>0.8707216689334416</v>
       </c>
       <c r="D17">
-        <v>1.004148012526777</v>
+        <v>0.8903503638408204</v>
       </c>
       <c r="E17">
-        <v>1.0042706812522</v>
+        <v>0.8947139165628298</v>
       </c>
       <c r="F17">
-        <v>0.9969451783998167</v>
+        <v>0.8282756784369767</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.007265371433142</v>
+        <v>0.9042469502650221</v>
       </c>
       <c r="K17">
-        <v>1.007628750151268</v>
+        <v>0.9065992077942006</v>
       </c>
       <c r="L17">
-        <v>1.007750960917956</v>
+        <v>0.9108595149767023</v>
       </c>
       <c r="M17">
-        <v>1.000453025260634</v>
+        <v>0.8461552668192195</v>
       </c>
       <c r="N17">
-        <v>1.006104875074253</v>
+        <v>0.9685017282170497</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001316394315354</v>
+        <v>0.8743473971358249</v>
       </c>
       <c r="D18">
-        <v>1.004579336601008</v>
+        <v>0.8935077251210128</v>
       </c>
       <c r="E18">
-        <v>1.004686038224454</v>
+        <v>0.897746486440567</v>
       </c>
       <c r="F18">
-        <v>0.9975788125116317</v>
+        <v>0.8331393948448566</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.007658085910057</v>
+        <v>0.9071703325779062</v>
       </c>
       <c r="K18">
-        <v>1.008015057034474</v>
+        <v>0.9094582061186516</v>
       </c>
       <c r="L18">
-        <v>1.008121365968804</v>
+        <v>0.913599195363815</v>
       </c>
       <c r="M18">
-        <v>1.001040499793651</v>
+        <v>0.850630252745728</v>
       </c>
       <c r="N18">
-        <v>1.006244750435481</v>
+        <v>0.9695737298961681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001479416177004</v>
+        <v>0.8755655785116536</v>
       </c>
       <c r="D19">
-        <v>1.004726284779849</v>
+        <v>0.8945689814677922</v>
       </c>
       <c r="E19">
-        <v>1.004827545758709</v>
+        <v>0.8987659169881145</v>
       </c>
       <c r="F19">
-        <v>0.99779469414251</v>
+        <v>0.8347706756898227</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.007791858856404</v>
+        <v>0.9081524479384726</v>
       </c>
       <c r="K19">
-        <v>1.00814664890886</v>
+        <v>0.9104188137597375</v>
       </c>
       <c r="L19">
-        <v>1.008247539050799</v>
+        <v>0.9145197772705241</v>
       </c>
       <c r="M19">
-        <v>1.001240641009048</v>
+        <v>0.8521313292820769</v>
       </c>
       <c r="N19">
-        <v>1.006292378869608</v>
+        <v>0.9699339967684161</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000749808057148</v>
+        <v>0.8700458763134524</v>
       </c>
       <c r="D20">
-        <v>1.004068615447174</v>
+        <v>0.8897620865055869</v>
       </c>
       <c r="E20">
-        <v>1.004194222981725</v>
+        <v>0.8941489497733464</v>
       </c>
       <c r="F20">
-        <v>0.9968285444312279</v>
+        <v>0.8273677073906456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.007193071390838</v>
+        <v>0.903702024212396</v>
       </c>
       <c r="K20">
-        <v>1.007557630526282</v>
+        <v>0.9060663438428386</v>
       </c>
       <c r="L20">
-        <v>1.007682767903857</v>
+        <v>0.9103489220720826</v>
       </c>
       <c r="M20">
-        <v>1.000344881465634</v>
+        <v>0.8453199566484096</v>
       </c>
       <c r="N20">
-        <v>1.0060791149003</v>
+        <v>0.9683019692319146</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9983681883574533</v>
+        <v>0.8506555827250405</v>
       </c>
       <c r="D21">
-        <v>1.001921838967304</v>
+        <v>0.8729127330581835</v>
       </c>
       <c r="E21">
-        <v>1.002126865545669</v>
+        <v>0.8779756619378069</v>
       </c>
       <c r="F21">
-        <v>0.9936753466134768</v>
+        <v>0.801104353290305</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.005237013008493</v>
+        <v>0.8880619669291313</v>
       </c>
       <c r="K21">
-        <v>1.005633597157727</v>
+        <v>0.8907809635907826</v>
       </c>
       <c r="L21">
-        <v>1.005837802090324</v>
+        <v>0.8957071174757193</v>
       </c>
       <c r="M21">
-        <v>0.9974204659168552</v>
+        <v>0.8211738244894303</v>
       </c>
       <c r="N21">
-        <v>1.005381183798786</v>
+        <v>0.9625788773571075</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9968631906893453</v>
+        <v>0.8370627174866405</v>
       </c>
       <c r="D22">
-        <v>1.000565264582737</v>
+        <v>0.8611368255771539</v>
       </c>
       <c r="E22">
-        <v>1.000820438517567</v>
+        <v>0.8666827094349834</v>
       </c>
       <c r="F22">
-        <v>0.9916831474676434</v>
+        <v>0.7824139123831336</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544657</v>
       </c>
       <c r="J22">
-        <v>1.003999810658025</v>
+        <v>0.8770939030130256</v>
       </c>
       <c r="K22">
-        <v>1.004416738918358</v>
+        <v>0.8800720348222815</v>
       </c>
       <c r="L22">
-        <v>1.004670847506421</v>
+        <v>0.8854551638517665</v>
       </c>
       <c r="M22">
-        <v>0.9955720865436296</v>
+        <v>0.8040134982193656</v>
       </c>
       <c r="N22">
-        <v>1.004938784099908</v>
+        <v>0.9585795938444172</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9976617515572058</v>
+        <v>0.8444250944531129</v>
       </c>
       <c r="D23">
-        <v>1.001285068720396</v>
+        <v>0.8675113227901701</v>
       </c>
       <c r="E23">
-        <v>1.001513637737121</v>
+        <v>0.8727946414682604</v>
       </c>
       <c r="F23">
-        <v>0.9927401879471101</v>
+        <v>0.7925689704264552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.00465638420563</v>
+        <v>0.8830349491267286</v>
       </c>
       <c r="K23">
-        <v>1.005062507507653</v>
+        <v>0.8858715974083244</v>
       </c>
       <c r="L23">
-        <v>1.005290142572135</v>
+        <v>0.891006571363087</v>
       </c>
       <c r="M23">
-        <v>0.9965528862430495</v>
+        <v>0.8133343777039826</v>
       </c>
       <c r="N23">
-        <v>1.005173652397911</v>
+        <v>0.9607442415370204</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000789611011589</v>
+        <v>0.8703515862485984</v>
       </c>
       <c r="D24">
-        <v>1.004104493814723</v>
+        <v>0.8900281984442463</v>
       </c>
       <c r="E24">
-        <v>1.004228773359168</v>
+        <v>0.8944045146630758</v>
       </c>
       <c r="F24">
-        <v>0.9968812494534719</v>
+        <v>0.8277785050823734</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.007225743100769</v>
+        <v>0.9039485353166608</v>
       </c>
       <c r="K24">
-        <v>1.007589768787545</v>
+        <v>0.9063073959694129</v>
       </c>
       <c r="L24">
-        <v>1.007713583694289</v>
+        <v>0.9105798981457681</v>
       </c>
       <c r="M24">
-        <v>1.000393750163363</v>
+        <v>0.8456978763165229</v>
       </c>
       <c r="N24">
-        <v>1.006090756012724</v>
+        <v>0.9683923326645173</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00438777342681</v>
+        <v>0.8960104594464415</v>
       </c>
       <c r="D25">
-        <v>1.007347887935682</v>
+        <v>0.912412025649146</v>
       </c>
       <c r="E25">
-        <v>1.007352013251211</v>
+        <v>0.9159141670412041</v>
       </c>
       <c r="F25">
-        <v>1.001646885398627</v>
+        <v>0.8619558669468526</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.010176558077594</v>
+        <v>0.9246270358793408</v>
       </c>
       <c r="K25">
-        <v>1.010492603475836</v>
+        <v>0.9265414270448928</v>
       </c>
       <c r="L25">
-        <v>1.010496715010997</v>
+        <v>0.9299749773144621</v>
       </c>
       <c r="M25">
-        <v>1.004810763952433</v>
+        <v>0.8771561861835322</v>
       </c>
       <c r="N25">
-        <v>1.007139822571722</v>
+        <v>0.9759847238044916</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,16 +433,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9140526582972479</v>
+        <v>0.9836269189460356</v>
       </c>
       <c r="D2">
-        <v>0.9282055056387092</v>
+        <v>1.004692961752746</v>
       </c>
       <c r="E2">
-        <v>0.931104595185577</v>
+        <v>0.9909875651468016</v>
       </c>
       <c r="F2">
-        <v>0.8856897368278751</v>
+        <v>1.014117516771066</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,22 +451,34 @@
         <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0.9391475667161765</v>
+        <v>1.006308623213333</v>
       </c>
       <c r="K2">
-        <v>0.9407647606545276</v>
+        <v>1.016087301069883</v>
       </c>
       <c r="L2">
-        <v>0.9436152013347198</v>
+        <v>1.002573902035931</v>
       </c>
       <c r="M2">
-        <v>0.8990102898461112</v>
+        <v>1.025383614349751</v>
       </c>
       <c r="N2">
-        <v>0.9813237856062563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.003217408159924</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028661719525082</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.022444916093179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,16 +486,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9260989590031796</v>
+        <v>0.9900407968762088</v>
       </c>
       <c r="D3">
-        <v>0.9387733405390364</v>
+        <v>1.009604438037133</v>
       </c>
       <c r="E3">
-        <v>0.9412742882979807</v>
+        <v>0.9963901353878243</v>
       </c>
       <c r="F3">
-        <v>0.9014296559503033</v>
+        <v>1.018671675948132</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,22 +504,34 @@
         <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>0.9488291841512654</v>
+        <v>1.01080669158945</v>
       </c>
       <c r="K3">
-        <v>0.9502545858235407</v>
+        <v>1.020115885708242</v>
       </c>
       <c r="L3">
-        <v>0.9527181318525565</v>
+        <v>1.007069414436793</v>
       </c>
       <c r="M3">
-        <v>0.9135011612409426</v>
+        <v>1.029071095817541</v>
       </c>
       <c r="N3">
-        <v>0.9848825502881207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.005065849592943</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031580156705685</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.025290888442308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,16 +539,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9334882017800002</v>
+        <v>0.9940805945878581</v>
       </c>
       <c r="D4">
-        <v>0.9452642403163549</v>
+        <v>1.012705485202281</v>
       </c>
       <c r="E4">
-        <v>0.9475225192737218</v>
+        <v>0.9997969251877229</v>
       </c>
       <c r="F4">
-        <v>0.9110496631400289</v>
+        <v>1.021551897298127</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,22 +557,34 @@
         <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>0.9547611694462064</v>
+        <v>1.013636941048564</v>
       </c>
       <c r="K4">
-        <v>0.9560714777571309</v>
+        <v>1.022652947090423</v>
       </c>
       <c r="L4">
-        <v>0.9582984718263388</v>
+        <v>1.00989780176156</v>
       </c>
       <c r="M4">
-        <v>0.9223550733292059</v>
+        <v>1.031396986415174</v>
       </c>
       <c r="N4">
-        <v>0.9870611476374674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.00622434386243</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033420963899537</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.027085797384761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,16 +592,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9365074422037021</v>
+        <v>0.9957661679812227</v>
       </c>
       <c r="D5">
-        <v>0.9479182173258515</v>
+        <v>1.014004194798706</v>
       </c>
       <c r="E5">
-        <v>0.9500776504982067</v>
+        <v>1.001220682353778</v>
       </c>
       <c r="F5">
-        <v>0.9149736687579286</v>
+        <v>1.022757195830754</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,22 +610,34 @@
         <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>0.9571832745749553</v>
+        <v>1.014820480754705</v>
       </c>
       <c r="K5">
-        <v>0.958447106863614</v>
+        <v>1.02371605191733</v>
       </c>
       <c r="L5">
-        <v>0.9605775879441443</v>
+        <v>1.011080166145658</v>
       </c>
       <c r="M5">
-        <v>0.9259657589261302</v>
+        <v>1.032370591192196</v>
       </c>
       <c r="N5">
-        <v>0.9879500692795932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.006709092915048</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034191514046327</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.027844822006589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,16 +645,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9370095290399455</v>
+        <v>0.996062831236476</v>
       </c>
       <c r="D6">
-        <v>0.9483596616023434</v>
+        <v>1.014236605548606</v>
       </c>
       <c r="E6">
-        <v>0.9505026736234962</v>
+        <v>1.001473052557936</v>
       </c>
       <c r="F6">
-        <v>0.915625860545943</v>
+        <v>1.022970462548629</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -603,22 +663,34 @@
         <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>0.9575859580039133</v>
+        <v>1.015032859758677</v>
       </c>
       <c r="K6">
-        <v>0.9588420923674571</v>
+        <v>1.023908823617262</v>
       </c>
       <c r="L6">
-        <v>0.9609565309835812</v>
+        <v>1.011291945304943</v>
       </c>
       <c r="M6">
-        <v>0.9265658216881424</v>
+        <v>1.032544908468544</v>
       </c>
       <c r="N6">
-        <v>0.9880978139186091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.006797773314225</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034329475690882</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.027990020661461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9335288758284879</v>
+        <v>0.9941444119961311</v>
       </c>
       <c r="D7">
-        <v>0.9452999868348151</v>
+        <v>1.012764710421245</v>
       </c>
       <c r="E7">
-        <v>0.9475569330309132</v>
+        <v>0.9998555912079607</v>
       </c>
       <c r="F7">
-        <v>0.9111025506079325</v>
+        <v>1.021600106192865</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874438</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>0.9547938059803501</v>
+        <v>1.013692953674475</v>
       </c>
       <c r="K7">
-        <v>0.9561034860676397</v>
+        <v>1.022708529014904</v>
       </c>
       <c r="L7">
-        <v>0.9583291794384206</v>
+        <v>1.009952757377803</v>
       </c>
       <c r="M7">
-        <v>0.9224037414074747</v>
+        <v>1.03144172705587</v>
       </c>
       <c r="N7">
-        <v>0.9870731280813285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.006252146366835</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.03345637346828</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.027145559332707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,16 +751,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9182142572109854</v>
+        <v>0.9858725354958841</v>
       </c>
       <c r="D8">
-        <v>0.9318543384264205</v>
+        <v>1.006423820402681</v>
       </c>
       <c r="E8">
-        <v>0.9346155065947601</v>
+        <v>0.9928846901283583</v>
       </c>
       <c r="F8">
-        <v>0.8911359973716274</v>
+        <v>1.015712806015591</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -685,22 +769,34 @@
         <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>0.9424936409848435</v>
+        <v>1.007898636170267</v>
       </c>
       <c r="K8">
-        <v>0.9440439875891835</v>
+        <v>1.017517474405328</v>
       </c>
       <c r="L8">
-        <v>0.9467605744803353</v>
+        <v>1.004161913303222</v>
       </c>
       <c r="M8">
-        <v>0.9040248114571684</v>
+        <v>1.026684062000242</v>
       </c>
       <c r="N8">
-        <v>0.982554019156852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.003878242238788</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029690953157091</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.023479607485902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,16 +804,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8875573005238265</v>
+        <v>0.9703159679761392</v>
       </c>
       <c r="D9">
-        <v>0.9050274579205638</v>
+        <v>0.9945473077651643</v>
       </c>
       <c r="E9">
-        <v>0.9088152843535789</v>
+        <v>0.9798028027610395</v>
       </c>
       <c r="F9">
-        <v>0.8507576190914957</v>
+        <v>1.004736894022667</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,22 +822,34 @@
         <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.9178175619489023</v>
+        <v>0.9969623223154324</v>
       </c>
       <c r="K9">
-        <v>0.9198754596867732</v>
+        <v>1.007729474951259</v>
       </c>
       <c r="L9">
-        <v>0.9235840109608572</v>
+        <v>0.9932322916021677</v>
       </c>
       <c r="M9">
-        <v>0.8668460707880966</v>
+        <v>1.017753583098271</v>
       </c>
       <c r="N9">
-        <v>0.9734823265983696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9993544705753309</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.022622933390232</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.016555213185194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,16 +857,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8635694472506734</v>
+        <v>0.9594772528806677</v>
       </c>
       <c r="D10">
-        <v>0.8841278628694887</v>
+        <v>0.9863697259177848</v>
       </c>
       <c r="E10">
-        <v>0.8887389548855998</v>
+        <v>0.9707479026679247</v>
       </c>
       <c r="F10">
-        <v>0.8186423681695325</v>
+        <v>0.9972521708434987</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,22 +875,34 @@
         <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.8984791326929622</v>
+        <v>0.9893962838956276</v>
       </c>
       <c r="K10">
-        <v>0.9009600487942898</v>
+        <v>1.000989518746528</v>
       </c>
       <c r="L10">
-        <v>0.905456581833945</v>
+        <v>0.9856661915969034</v>
       </c>
       <c r="M10">
-        <v>0.83729449692673</v>
+        <v>1.011671216065768</v>
       </c>
       <c r="N10">
-        <v>0.966388481776202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9962309563590125</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.017861765255547</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.011806647953363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,16 +910,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8519585285669428</v>
+        <v>0.9565728747228524</v>
       </c>
       <c r="D11">
-        <v>0.8740430896800655</v>
+        <v>0.9845604195347792</v>
       </c>
       <c r="E11">
-        <v>0.8790601321508571</v>
+        <v>0.9685665449655654</v>
       </c>
       <c r="F11">
-        <v>0.8028829390921361</v>
+        <v>0.995965817556692</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -808,22 +928,34 @@
         <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.8891131552348192</v>
+        <v>0.9878709219769066</v>
       </c>
       <c r="K11">
-        <v>0.8918077822751216</v>
+        <v>0.9997794980880513</v>
       </c>
       <c r="L11">
-        <v>0.8966903981779438</v>
+        <v>0.9841066359028617</v>
       </c>
       <c r="M11">
-        <v>0.8228079381531149</v>
+        <v>1.010964215777371</v>
       </c>
       <c r="N11">
-        <v>0.962962841623522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9958161052774028</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.017749143649613</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.010984984061694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,16 +963,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8474112708057934</v>
+        <v>0.9562517552759893</v>
       </c>
       <c r="D12">
-        <v>0.8700993505834372</v>
+        <v>0.9845941596692444</v>
       </c>
       <c r="E12">
-        <v>0.8752768379166284</v>
+        <v>0.9684909363809894</v>
       </c>
       <c r="F12">
-        <v>0.7966662508114136</v>
+        <v>0.9962605558407739</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,22 +981,34 @@
         <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.8854443999813768</v>
+        <v>0.9880303799783482</v>
       </c>
       <c r="K12">
-        <v>0.8882244265223057</v>
+        <v>1.00002258519366</v>
       </c>
       <c r="L12">
-        <v>0.8932591848869831</v>
+        <v>0.9842477647635409</v>
       </c>
       <c r="M12">
-        <v>0.817097028276467</v>
+        <v>1.011459750082576</v>
       </c>
       <c r="N12">
-        <v>0.9616232527172981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9960630643474891</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.018474520476827</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.011156865343905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,16 +1016,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8483983466283119</v>
+        <v>0.9579503018194163</v>
       </c>
       <c r="D13">
-        <v>0.8709551372611608</v>
+        <v>0.9860998255343068</v>
       </c>
       <c r="E13">
-        <v>0.876097724390018</v>
+        <v>0.9700771199685406</v>
       </c>
       <c r="F13">
-        <v>0.798017984055165</v>
+        <v>0.9978420492925737</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,22 +1034,34 @@
         <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>0.8862408085070271</v>
+        <v>0.989547828907765</v>
       </c>
       <c r="K13">
-        <v>0.8890022136119522</v>
+        <v>1.001453318223317</v>
       </c>
       <c r="L13">
-        <v>0.8940038994044501</v>
+        <v>0.9857549122962719</v>
       </c>
       <c r="M13">
-        <v>0.8183385922974491</v>
+        <v>1.012966536026609</v>
       </c>
       <c r="N13">
-        <v>0.9619139319514493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9968615833772096</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.01994757332003</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.01216593042217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,16 +1069,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8515878074720111</v>
+        <v>0.9600440139467463</v>
       </c>
       <c r="D14">
-        <v>0.8737214469399278</v>
+        <v>0.9878131981565852</v>
       </c>
       <c r="E14">
-        <v>0.8787515382482645</v>
+        <v>0.9719316960714424</v>
       </c>
       <c r="F14">
-        <v>0.8023771041334797</v>
+        <v>0.9995239486652712</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,22 +1087,34 @@
         <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.8888140685944416</v>
+        <v>0.991217131674476</v>
       </c>
       <c r="K14">
-        <v>0.8915156212754277</v>
+        <v>1.002985934308793</v>
       </c>
       <c r="L14">
-        <v>0.8964106203090435</v>
+        <v>0.9874207819997999</v>
       </c>
       <c r="M14">
-        <v>0.8223431732016526</v>
+        <v>1.01447182885962</v>
       </c>
       <c r="N14">
-        <v>0.9628535840224927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9976674242169096</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.021313354601119</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.013251074250557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,16 +1122,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8535199803236851</v>
+        <v>0.9610075335108638</v>
       </c>
       <c r="D15">
-        <v>0.8753980674473454</v>
+        <v>0.988569375658375</v>
       </c>
       <c r="E15">
-        <v>0.8803602098806599</v>
+        <v>0.9727589941794879</v>
       </c>
       <c r="F15">
-        <v>0.8050116021689903</v>
+        <v>1.000238243623426</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,22 +1140,34 @@
         <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.8903728603251333</v>
+        <v>0.9919359473563935</v>
       </c>
       <c r="K15">
-        <v>0.8930383876754278</v>
+        <v>1.003636978244203</v>
       </c>
       <c r="L15">
-        <v>0.8978688858788767</v>
+        <v>0.9881386912767174</v>
       </c>
       <c r="M15">
-        <v>0.824763926080385</v>
+        <v>1.015083765789845</v>
       </c>
       <c r="N15">
-        <v>0.9634231132373454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9979909858377132</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.021835045903063</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.013717456722927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,16 +1175,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8643103936695278</v>
+        <v>0.9652598259294148</v>
       </c>
       <c r="D16">
-        <v>0.8847721312888694</v>
+        <v>0.9917336167746998</v>
       </c>
       <c r="E16">
-        <v>0.8893574924073134</v>
+        <v>0.9762668503807698</v>
       </c>
       <c r="F16">
-        <v>0.8196428490453824</v>
+        <v>1.003123996440007</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,22 +1193,34 @@
         <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.8990767196708481</v>
+        <v>0.9948415057533299</v>
       </c>
       <c r="K16">
-        <v>0.9015442036802449</v>
+        <v>1.00621662280387</v>
       </c>
       <c r="L16">
-        <v>0.9060162100819046</v>
+        <v>0.9910402737025253</v>
       </c>
       <c r="M16">
-        <v>0.8382145683671197</v>
+        <v>1.01740056168779</v>
       </c>
       <c r="N16">
-        <v>0.9666073096985165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9991537228997851</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.023626998233624</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.015544699217384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,16 +1228,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8707216689334416</v>
+        <v>0.9674306666886447</v>
       </c>
       <c r="D17">
-        <v>0.8903503638408204</v>
+        <v>0.9932696765119596</v>
       </c>
       <c r="E17">
-        <v>0.8947139165628298</v>
+        <v>0.977993587486807</v>
       </c>
       <c r="F17">
-        <v>0.8282756784369767</v>
+        <v>1.004456539619824</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,22 +1246,34 @@
         <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>0.9042469502650221</v>
+        <v>0.9962006476166919</v>
       </c>
       <c r="K17">
-        <v>0.9065992077942006</v>
+        <v>1.007396750817374</v>
       </c>
       <c r="L17">
-        <v>0.9108595149767023</v>
+        <v>0.9923987938956446</v>
       </c>
       <c r="M17">
-        <v>0.8461552668192195</v>
+        <v>1.018386878168514</v>
       </c>
       <c r="N17">
-        <v>0.9685017282170497</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.99962533443707</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.024275876000865</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.016381787220434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,16 +1281,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8743473971358249</v>
+        <v>0.9679745514164438</v>
       </c>
       <c r="D18">
-        <v>0.8935077251210128</v>
+        <v>0.9934913299968472</v>
       </c>
       <c r="E18">
-        <v>0.897746486440567</v>
+        <v>0.9783059319542212</v>
       </c>
       <c r="F18">
-        <v>0.8331393948448566</v>
+        <v>1.004499420068684</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,22 +1299,34 @@
         <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>0.9071703325779062</v>
+        <v>0.9963045311309919</v>
       </c>
       <c r="K18">
-        <v>0.9094582061186516</v>
+        <v>1.007423365366546</v>
       </c>
       <c r="L18">
-        <v>0.913599195363815</v>
+        <v>0.9925099438426505</v>
       </c>
       <c r="M18">
-        <v>0.850630252745728</v>
+        <v>1.018240937018672</v>
       </c>
       <c r="N18">
-        <v>0.9695737298961681</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9995223897586715</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.023919258849028</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.016388651676275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,16 +1334,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8755655785116536</v>
+        <v>0.9671657407569443</v>
       </c>
       <c r="D19">
-        <v>0.8945689814677922</v>
+        <v>0.9926311169593837</v>
       </c>
       <c r="E19">
-        <v>0.8987659169881145</v>
+        <v>0.9774575046014062</v>
       </c>
       <c r="F19">
-        <v>0.8347706756898227</v>
+        <v>1.003450379487457</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,22 +1352,34 @@
         <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>0.9081524479384726</v>
+        <v>0.9953869968458867</v>
       </c>
       <c r="K19">
-        <v>0.9104188137597375</v>
+        <v>1.006513037151079</v>
       </c>
       <c r="L19">
-        <v>0.9145197772705241</v>
+        <v>0.991610333938473</v>
       </c>
       <c r="M19">
-        <v>0.8521313292820769</v>
+        <v>1.017145594271445</v>
       </c>
       <c r="N19">
-        <v>0.9699339967684161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9989737585255724</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.022721892091356</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.015751563131159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,16 +1387,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8700458763134524</v>
+        <v>0.9624438502686115</v>
       </c>
       <c r="D20">
-        <v>0.8897620865055869</v>
+        <v>0.9886343638018944</v>
       </c>
       <c r="E20">
-        <v>0.8941489497733464</v>
+        <v>0.9732409125548117</v>
       </c>
       <c r="F20">
-        <v>0.8273677073906456</v>
+        <v>0.9993077449718402</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1177,22 +1405,34 @@
         <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>0.903702024212396</v>
+        <v>0.9915034096765079</v>
       </c>
       <c r="K20">
-        <v>0.9060663438428386</v>
+        <v>1.002880052326547</v>
       </c>
       <c r="L20">
-        <v>0.9103489220720826</v>
+        <v>0.9877711939124298</v>
       </c>
       <c r="M20">
-        <v>0.8453199566484096</v>
+        <v>1.013362777781317</v>
       </c>
       <c r="N20">
-        <v>0.9683019692319146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9971187427335093</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.019189676188197</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.013186835552691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,16 +1440,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8506555827250405</v>
+        <v>0.9538252922184087</v>
       </c>
       <c r="D21">
-        <v>0.8729127330581835</v>
+        <v>0.982077759593005</v>
       </c>
       <c r="E21">
-        <v>0.8779756619378069</v>
+        <v>0.9660101864397228</v>
       </c>
       <c r="F21">
-        <v>0.801104353290305</v>
+        <v>0.9932457992590352</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,22 +1458,34 @@
         <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.8880619669291313</v>
+        <v>0.985388975061613</v>
       </c>
       <c r="K21">
-        <v>0.8907809635907826</v>
+        <v>0.9974068198194536</v>
       </c>
       <c r="L21">
-        <v>0.8957071174757193</v>
+        <v>0.9816654455287062</v>
       </c>
       <c r="M21">
-        <v>0.8211738244894303</v>
+        <v>1.008356271910646</v>
       </c>
       <c r="N21">
-        <v>0.9625788773571075</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9945494771459404</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.015185359639537</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.009320203806982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8370627174866405</v>
+        <v>0.9482761513658096</v>
       </c>
       <c r="D22">
-        <v>0.8611368255771539</v>
+        <v>0.9778801360247568</v>
       </c>
       <c r="E22">
-        <v>0.8666827094349834</v>
+        <v>0.9613702415191304</v>
       </c>
       <c r="F22">
-        <v>0.7824139123831336</v>
+        <v>0.9894034014283505</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544657</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.8770939030130256</v>
+        <v>0.9814672473635119</v>
       </c>
       <c r="K22">
-        <v>0.8800720348222815</v>
+        <v>0.9939029072506753</v>
       </c>
       <c r="L22">
-        <v>0.8854551638517665</v>
+        <v>0.9777478709557448</v>
       </c>
       <c r="M22">
-        <v>0.8040134982193656</v>
+        <v>1.005187742906495</v>
       </c>
       <c r="N22">
-        <v>0.9585795938444172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9929034901870372</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.012677584261996</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.006828647030686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,16 +1546,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8444250944531129</v>
+        <v>0.9511866758683191</v>
       </c>
       <c r="D23">
-        <v>0.8675113227901701</v>
+        <v>0.9800701243040058</v>
       </c>
       <c r="E23">
-        <v>0.8727946414682604</v>
+        <v>0.9637967562859628</v>
       </c>
       <c r="F23">
-        <v>0.7925689704264552</v>
+        <v>0.9914140264597786</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,22 +1564,34 @@
         <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.8830349491267286</v>
+        <v>0.9835119454291875</v>
       </c>
       <c r="K23">
-        <v>0.8858715974083244</v>
+        <v>0.9957247715313143</v>
       </c>
       <c r="L23">
-        <v>0.891006571363087</v>
+        <v>0.9797908508489611</v>
       </c>
       <c r="M23">
-        <v>0.8133343777039826</v>
+        <v>1.006840708494238</v>
       </c>
       <c r="N23">
-        <v>0.9607442415370204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9937561448766983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.013985847560561</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.008106876250372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,16 +1599,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8703515862485984</v>
+        <v>0.9623321734036085</v>
       </c>
       <c r="D24">
-        <v>0.8900281984442463</v>
+        <v>0.9884999808018189</v>
       </c>
       <c r="E24">
-        <v>0.8944045146630758</v>
+        <v>0.9731178622460124</v>
       </c>
       <c r="F24">
-        <v>0.8277785050823734</v>
+        <v>0.9991568201328401</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,22 +1617,34 @@
         <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>0.9039485353166608</v>
+        <v>0.9913614956398621</v>
       </c>
       <c r="K24">
-        <v>0.9063073959694129</v>
+        <v>1.002732104987394</v>
       </c>
       <c r="L24">
-        <v>0.9105798981457681</v>
+        <v>0.9876340980673894</v>
       </c>
       <c r="M24">
-        <v>0.8456978763165229</v>
+        <v>1.013198759152155</v>
       </c>
       <c r="N24">
-        <v>0.9683923326645173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9970330336294569</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.019017993550211</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.013053957880399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,16 +1652,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8960104594464415</v>
+        <v>0.9745301622792735</v>
       </c>
       <c r="D25">
-        <v>0.912412025649146</v>
+        <v>0.9977730840507727</v>
       </c>
       <c r="E25">
-        <v>0.9159141670412041</v>
+        <v>0.9833507460243495</v>
       </c>
       <c r="F25">
-        <v>0.8619558669468526</v>
+        <v>1.007702066259908</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,19 +1670,31 @@
         <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>0.9246270358793408</v>
+        <v>0.9999461783703227</v>
       </c>
       <c r="K25">
-        <v>0.9265414270448928</v>
+        <v>1.010406068666573</v>
       </c>
       <c r="L25">
-        <v>0.9299749773144621</v>
+        <v>0.9962131383499324</v>
       </c>
       <c r="M25">
-        <v>0.8771561861835322</v>
+        <v>1.020181982691093</v>
       </c>
       <c r="N25">
-        <v>0.9759847238044916</v>
+        <v>1.00060133031235</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024544895384753</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.018477186259964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9836269189460356</v>
+        <v>0.9879546780297471</v>
       </c>
       <c r="D2">
-        <v>1.004692961752746</v>
+        <v>1.008448624005617</v>
       </c>
       <c r="E2">
-        <v>0.9909875651468016</v>
+        <v>0.9951022180610747</v>
       </c>
       <c r="F2">
-        <v>1.014117516771066</v>
+        <v>1.017107642896784</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.04522409831064</v>
       </c>
       <c r="J2">
-        <v>1.006308623213333</v>
+        <v>1.010501729905668</v>
       </c>
       <c r="K2">
-        <v>1.016087301069883</v>
+        <v>1.019791497659323</v>
       </c>
       <c r="L2">
-        <v>1.002573902035931</v>
+        <v>1.006630211140803</v>
       </c>
       <c r="M2">
-        <v>1.025383614349751</v>
+        <v>1.028333677007788</v>
       </c>
       <c r="N2">
-        <v>1.003217408159924</v>
+        <v>1.008348131975456</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028661719525082</v>
+        <v>1.030996531574575</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.022444916093179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.02507316579527</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.016147779661924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900407968762088</v>
+        <v>0.9934563930420376</v>
       </c>
       <c r="D3">
-        <v>1.009604438037133</v>
+        <v>1.012459399985977</v>
       </c>
       <c r="E3">
-        <v>0.9963901353878243</v>
+        <v>0.9996644534002636</v>
       </c>
       <c r="F3">
-        <v>1.018671675948132</v>
+        <v>1.020965856483894</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.02</v>
       </c>
       <c r="I3">
         <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.01080669158945</v>
+        <v>1.014127046967659</v>
       </c>
       <c r="K3">
-        <v>1.020115885708242</v>
+        <v>1.022935304418069</v>
       </c>
       <c r="L3">
-        <v>1.007069414436793</v>
+        <v>1.01030162940891</v>
       </c>
       <c r="M3">
-        <v>1.029071095817541</v>
+        <v>1.031337323195295</v>
       </c>
       <c r="N3">
-        <v>1.005065849592943</v>
+        <v>1.009504784968201</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031580156705685</v>
+        <v>1.033373743989918</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.025290888442308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.027293191373269</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.017030565816528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9940805945878581</v>
+        <v>0.9969366191832147</v>
       </c>
       <c r="D4">
-        <v>1.012705485202281</v>
+        <v>1.015003412972291</v>
       </c>
       <c r="E4">
-        <v>0.9997969251877229</v>
+        <v>1.002555337778011</v>
       </c>
       <c r="F4">
-        <v>1.021551897298127</v>
+        <v>1.023416706416082</v>
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1.02</v>
       </c>
       <c r="I4">
         <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.013636941048564</v>
+        <v>1.016419012497767</v>
       </c>
       <c r="K4">
-        <v>1.022652947090423</v>
+        <v>1.024924070597115</v>
       </c>
       <c r="L4">
-        <v>1.00989780176156</v>
+        <v>1.012623019652658</v>
       </c>
       <c r="M4">
-        <v>1.031396986415174</v>
+        <v>1.033240494171413</v>
       </c>
       <c r="N4">
-        <v>1.00622434386243</v>
+        <v>1.010233647112497</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033420963899537</v>
+        <v>1.034879989688426</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.027085797384761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.028700453748838</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.017584422130277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9957661679812227</v>
+        <v>0.998391077785258</v>
       </c>
       <c r="D5">
-        <v>1.014004194798706</v>
+        <v>1.016071268671683</v>
       </c>
       <c r="E5">
-        <v>1.001220682353778</v>
+        <v>1.003765855629134</v>
       </c>
       <c r="F5">
-        <v>1.022757195830754</v>
+        <v>1.024444245297594</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1.02</v>
       </c>
       <c r="I5">
         <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.014820480754705</v>
+        <v>1.017379561252419</v>
       </c>
       <c r="K5">
-        <v>1.02371605191733</v>
+        <v>1.025759684892406</v>
       </c>
       <c r="L5">
-        <v>1.011080166145658</v>
+        <v>1.013595576523179</v>
       </c>
       <c r="M5">
-        <v>1.032370591192196</v>
+        <v>1.034038901046235</v>
       </c>
       <c r="N5">
-        <v>1.006709092915048</v>
+        <v>1.010539502838261</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034191514046327</v>
+        <v>1.035511879893407</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.027844822006589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.029299308249412</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.017817238294038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.996062831236476</v>
+        <v>0.998646001739607</v>
       </c>
       <c r="D6">
-        <v>1.014236605548606</v>
+        <v>1.016262234323646</v>
       </c>
       <c r="E6">
-        <v>1.001473052557936</v>
+        <v>1.003979587921427</v>
       </c>
       <c r="F6">
-        <v>1.022970462548629</v>
+        <v>1.024625548691489</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.02</v>
       </c>
       <c r="I6">
         <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.015032859758677</v>
+        <v>1.017551600248653</v>
       </c>
       <c r="K6">
-        <v>1.023908823617262</v>
+        <v>1.025911591893573</v>
       </c>
       <c r="L6">
-        <v>1.011291945304943</v>
+        <v>1.013769312687173</v>
       </c>
       <c r="M6">
-        <v>1.032544908468544</v>
+        <v>1.034181697491579</v>
       </c>
       <c r="N6">
-        <v>1.006797773314225</v>
+        <v>1.010595459475076</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034329475690882</v>
+        <v>1.035624894485907</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.027990020661461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.029416463905895</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.017860991275601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9941444119961311</v>
+        <v>0.997002332206798</v>
       </c>
       <c r="D7">
-        <v>1.012764710421245</v>
+        <v>1.015062935647004</v>
       </c>
       <c r="E7">
-        <v>0.9998555912079607</v>
+        <v>1.002616421444234</v>
       </c>
       <c r="F7">
-        <v>1.021600106192865</v>
+        <v>1.023465407130381</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.02</v>
       </c>
       <c r="I7">
         <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.013692953674475</v>
+        <v>1.016476911819201</v>
       </c>
       <c r="K7">
-        <v>1.022708529014904</v>
+        <v>1.024979959366771</v>
       </c>
       <c r="L7">
-        <v>1.009952757377803</v>
+        <v>1.012680379916078</v>
       </c>
       <c r="M7">
-        <v>1.03144172705587</v>
+        <v>1.033285730623048</v>
       </c>
       <c r="N7">
-        <v>1.006252146366835</v>
+        <v>1.01028327038058</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.03345637346828</v>
+        <v>1.034915791588</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.027145559332707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.028762393709893</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.01760595138212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9858725354958841</v>
+        <v>0.9899170839325343</v>
       </c>
       <c r="D8">
-        <v>1.006423820402681</v>
+        <v>1.009895008422955</v>
       </c>
       <c r="E8">
-        <v>0.9928846901283583</v>
+        <v>0.9967416664333248</v>
       </c>
       <c r="F8">
-        <v>1.015712806015591</v>
+        <v>1.018483919238297</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.02</v>
       </c>
       <c r="I8">
         <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.007898636170267</v>
+        <v>1.011821868694113</v>
       </c>
       <c r="K8">
-        <v>1.017517474405328</v>
+        <v>1.020942593178407</v>
       </c>
       <c r="L8">
-        <v>1.004161913303222</v>
+        <v>1.007965955565621</v>
       </c>
       <c r="M8">
-        <v>1.026684062000242</v>
+        <v>1.02941920226646</v>
       </c>
       <c r="N8">
-        <v>1.003878242238788</v>
+        <v>1.008859704225829</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029690953157091</v>
+        <v>1.031855663031342</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.023479607485902</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.025912710548584</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.016483488594923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9703159679761392</v>
+        <v>0.9766825577315091</v>
       </c>
       <c r="D9">
-        <v>0.9945473077651643</v>
+        <v>1.000279624915982</v>
       </c>
       <c r="E9">
-        <v>0.9798028027610395</v>
+        <v>0.9857961794632467</v>
       </c>
       <c r="F9">
-        <v>1.004736894022667</v>
+        <v>1.009262228988058</v>
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.02</v>
       </c>
       <c r="I9">
         <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.9969623223154324</v>
+        <v>1.003086464310111</v>
       </c>
       <c r="K9">
-        <v>1.007729474951259</v>
+        <v>1.013368167029445</v>
       </c>
       <c r="L9">
-        <v>0.9932322916021677</v>
+        <v>0.9991239855568183</v>
       </c>
       <c r="M9">
-        <v>1.017753583098271</v>
+        <v>1.022206799357797</v>
       </c>
       <c r="N9">
-        <v>0.9993544705753309</v>
+        <v>1.006068339123445</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.022622933390232</v>
+        <v>1.02614743666207</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.016555213185194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.020553379838866</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.014328265962886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9594772528806677</v>
+        <v>0.9676013410971945</v>
       </c>
       <c r="D10">
-        <v>0.9863697259177848</v>
+        <v>0.9937765620515724</v>
       </c>
       <c r="E10">
-        <v>0.9707479026679247</v>
+        <v>0.9783555149348507</v>
       </c>
       <c r="F10">
-        <v>0.9972521708434987</v>
+        <v>1.003083677017788</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.02</v>
       </c>
       <c r="I10">
         <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.9893962838956276</v>
+        <v>0.997162091239865</v>
       </c>
       <c r="K10">
-        <v>1.000989518746528</v>
+        <v>1.00825909915073</v>
       </c>
       <c r="L10">
-        <v>0.9856661915969034</v>
+        <v>0.9931268821720352</v>
       </c>
       <c r="M10">
-        <v>1.011671216065768</v>
+        <v>1.017397477041666</v>
       </c>
       <c r="N10">
-        <v>0.9962309563590125</v>
+        <v>1.004304916843839</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.017861765255547</v>
+        <v>1.022393554369011</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.011806647953363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.01695971916205</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.012881105358183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9565728747228524</v>
+        <v>0.9650149288531611</v>
       </c>
       <c r="D11">
-        <v>0.9845604195347792</v>
+        <v>0.9922793901834097</v>
       </c>
       <c r="E11">
-        <v>0.9685665449655654</v>
+        <v>0.9764532623333648</v>
       </c>
       <c r="F11">
-        <v>0.995965817556692</v>
+        <v>1.002031624845856</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1.02</v>
       </c>
       <c r="I11">
         <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.9878709219769066</v>
+        <v>0.9959191982390978</v>
       </c>
       <c r="K11">
-        <v>0.9997794980880513</v>
+        <v>1.00734838957138</v>
       </c>
       <c r="L11">
-        <v>0.9841066359028617</v>
+        <v>0.99183332982484</v>
       </c>
       <c r="M11">
-        <v>1.010964215777371</v>
+        <v>1.016915329131564</v>
       </c>
       <c r="N11">
-        <v>0.9958161052774028</v>
+        <v>1.004296894230917</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.017749143649613</v>
+        <v>1.022456409826734</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.010984984061694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.01635275041238</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.012790193449856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562517552759893</v>
+        <v>0.9645731499352899</v>
       </c>
       <c r="D12">
-        <v>0.9845941596692444</v>
+        <v>0.9922143365193932</v>
       </c>
       <c r="E12">
-        <v>0.9684909363809894</v>
+        <v>0.9762518488222759</v>
       </c>
       <c r="F12">
-        <v>0.9962605558407739</v>
+        <v>1.002241152224368</v>
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1.02</v>
       </c>
       <c r="I12">
         <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.9880303799783482</v>
+        <v>0.9959563767723985</v>
       </c>
       <c r="K12">
-        <v>1.00002258519366</v>
+        <v>1.007492233248079</v>
       </c>
       <c r="L12">
-        <v>0.9842477647635409</v>
+        <v>0.9918486210758575</v>
       </c>
       <c r="M12">
-        <v>1.011459750082576</v>
+        <v>1.017325540884102</v>
       </c>
       <c r="N12">
-        <v>0.9960630643474891</v>
+        <v>1.00453339445134</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.018474520476827</v>
+        <v>1.023112665636249</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.011156865343905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.016454455230432</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.012960222337576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9579503018194163</v>
+        <v>0.9657738013416041</v>
       </c>
       <c r="D13">
-        <v>0.9860998255343068</v>
+        <v>0.993271101428287</v>
       </c>
       <c r="E13">
-        <v>0.9700771199685406</v>
+        <v>0.9773607925595889</v>
       </c>
       <c r="F13">
-        <v>0.9978420492925737</v>
+        <v>1.003464564431575</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.02</v>
       </c>
       <c r="I13">
         <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>0.989547828907765</v>
+        <v>0.9970025692417075</v>
       </c>
       <c r="K13">
-        <v>1.001453318223317</v>
+        <v>1.008483890503674</v>
       </c>
       <c r="L13">
-        <v>0.9857549122962719</v>
+        <v>0.992889426709573</v>
       </c>
       <c r="M13">
-        <v>1.012966536026609</v>
+        <v>1.01848187657482</v>
       </c>
       <c r="N13">
-        <v>0.9968615833772096</v>
+        <v>1.004945871315294</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.01994757332003</v>
+        <v>1.024307484737291</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.01216593042217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.017152805122691</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.013351673267791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9600440139467463</v>
+        <v>0.967356584957055</v>
       </c>
       <c r="D14">
-        <v>0.9878131981565852</v>
+        <v>0.9945189089555219</v>
       </c>
       <c r="E14">
-        <v>0.9719316960714424</v>
+        <v>0.9787303436287491</v>
       </c>
       <c r="F14">
-        <v>0.9995239486652712</v>
+        <v>1.004778269543476</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1.02</v>
       </c>
       <c r="I14">
         <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.991217131674476</v>
+        <v>0.9981910729607452</v>
       </c>
       <c r="K14">
-        <v>1.002985934308793</v>
+        <v>1.009562041849641</v>
       </c>
       <c r="L14">
-        <v>0.9874207819997999</v>
+        <v>0.9940823517305073</v>
       </c>
       <c r="M14">
-        <v>1.01447182885962</v>
+        <v>1.0196274851753</v>
       </c>
       <c r="N14">
-        <v>0.9976674242169096</v>
+        <v>1.005316484749605</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.021313354601119</v>
+        <v>1.025388373262561</v>
       </c>
       <c r="Q14">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R14">
-        <v>1.013251074250557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.017916713225855</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.013726899141695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9610075335108638</v>
+        <v>0.9681141580355181</v>
       </c>
       <c r="D15">
-        <v>0.988569375658375</v>
+        <v>0.9950853307635269</v>
       </c>
       <c r="E15">
-        <v>0.9727589941794879</v>
+        <v>0.9793639737811383</v>
       </c>
       <c r="F15">
-        <v>1.000238243623426</v>
+        <v>1.005343377060236</v>
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1.02</v>
       </c>
       <c r="I15">
         <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.9919359473563935</v>
+        <v>0.9987167989229983</v>
       </c>
       <c r="K15">
-        <v>1.003636978244203</v>
+        <v>1.010028082772577</v>
       </c>
       <c r="L15">
-        <v>0.9881386912767174</v>
+        <v>0.9946116793696457</v>
       </c>
       <c r="M15">
-        <v>1.015083765789845</v>
+        <v>1.020093852245068</v>
       </c>
       <c r="N15">
-        <v>0.9979909858377132</v>
+        <v>1.005454373134257</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.021835045903063</v>
+        <v>1.025794901680875</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.013717456722927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.018252818500438</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.013873514233365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9652598259294148</v>
+        <v>0.971628809894205</v>
       </c>
       <c r="D16">
-        <v>0.9917336167746998</v>
+        <v>0.9975533513536373</v>
       </c>
       <c r="E16">
-        <v>0.9762668503807698</v>
+        <v>0.982191021376881</v>
       </c>
       <c r="F16">
-        <v>1.003123996440007</v>
+        <v>1.007686810956021</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1.02</v>
       </c>
       <c r="I16">
         <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.9948415057533299</v>
+        <v>1.000934556395344</v>
       </c>
       <c r="K16">
-        <v>1.00621662280387</v>
+        <v>1.011930113656367</v>
       </c>
       <c r="L16">
-        <v>0.9910402737025253</v>
+        <v>0.9968517952400657</v>
       </c>
       <c r="M16">
-        <v>1.01740056168779</v>
+        <v>1.021882376763185</v>
       </c>
       <c r="N16">
-        <v>0.9991537228997851</v>
+        <v>1.005912389488333</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.023626998233624</v>
+        <v>1.027169427067648</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.015544699217384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.019601194512221</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.014377813743977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9674306666886447</v>
+        <v>0.9735157415444301</v>
       </c>
       <c r="D17">
-        <v>0.9932696765119596</v>
+        <v>0.9988106251223867</v>
       </c>
       <c r="E17">
-        <v>0.977993587486807</v>
+        <v>0.983663648770529</v>
       </c>
       <c r="F17">
-        <v>1.004456539619824</v>
+        <v>1.008805269620909</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.02</v>
       </c>
       <c r="I17">
         <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>0.9962006476166919</v>
+        <v>1.0020311422218</v>
       </c>
       <c r="K17">
-        <v>1.007396750817374</v>
+        <v>1.012839540575776</v>
       </c>
       <c r="L17">
-        <v>0.9923987938956446</v>
+        <v>0.9979643075472659</v>
       </c>
       <c r="M17">
-        <v>1.018386878168514</v>
+        <v>1.022660652111502</v>
       </c>
       <c r="N17">
-        <v>0.99962533443707</v>
+        <v>1.006104817649497</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.024275876000865</v>
+        <v>1.027654213613348</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.016381787220434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.020247101934742</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.014573979639964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9679745514164438</v>
+        <v>0.9741230881657276</v>
       </c>
       <c r="D18">
-        <v>0.9934913299968472</v>
+        <v>0.99907546507805</v>
       </c>
       <c r="E18">
-        <v>0.9783059319542212</v>
+        <v>0.9840483267283263</v>
       </c>
       <c r="F18">
-        <v>1.004499420068684</v>
+        <v>1.008887369173088</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1.02</v>
       </c>
       <c r="I18">
         <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>0.9963045311309919</v>
+        <v>1.002200643283154</v>
       </c>
       <c r="K18">
-        <v>1.007423365366546</v>
+        <v>1.012910176304719</v>
       </c>
       <c r="L18">
-        <v>0.9925099438426505</v>
+        <v>0.9981482074246265</v>
       </c>
       <c r="M18">
-        <v>1.018240937018672</v>
+        <v>1.022554438372877</v>
       </c>
       <c r="N18">
-        <v>0.9995223897586715</v>
+        <v>1.006023827007868</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.023919258849028</v>
+        <v>1.027329729208736</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.016388651676275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.020284002121276</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.014496253167285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9671657407569443</v>
+        <v>0.9736413831757591</v>
       </c>
       <c r="D19">
-        <v>0.9926311169593837</v>
+        <v>0.9985072817103867</v>
       </c>
       <c r="E19">
-        <v>0.9774575046014062</v>
+        <v>0.9835177980411733</v>
       </c>
       <c r="F19">
-        <v>1.003450379487457</v>
+        <v>1.008073089774617</v>
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.02</v>
       </c>
       <c r="I19">
         <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>0.9953869968458867</v>
+        <v>1.001597853093088</v>
       </c>
       <c r="K19">
-        <v>1.006513037151079</v>
+        <v>1.012287149181182</v>
       </c>
       <c r="L19">
-        <v>0.991610333938473</v>
+        <v>0.9975611247600686</v>
       </c>
       <c r="M19">
-        <v>1.017145594271445</v>
+        <v>1.021690107375758</v>
       </c>
       <c r="N19">
-        <v>0.9989737585255724</v>
+        <v>1.005713179446412</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.022721892091356</v>
+        <v>1.026316223281194</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.015751563131159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.019850666201714</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.014204589313864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9624438502686115</v>
+        <v>0.97002268726251</v>
       </c>
       <c r="D20">
-        <v>0.9886343638018944</v>
+        <v>0.9955308984963533</v>
       </c>
       <c r="E20">
-        <v>0.9732409125548117</v>
+        <v>0.9803426100171659</v>
       </c>
       <c r="F20">
-        <v>0.9993077449718402</v>
+        <v>1.004739308616707</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.02</v>
       </c>
       <c r="I20">
         <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>0.9915034096765079</v>
+        <v>0.9987601795345943</v>
       </c>
       <c r="K20">
-        <v>1.002880052326547</v>
+        <v>1.009652789519412</v>
       </c>
       <c r="L20">
-        <v>0.9877711939124298</v>
+        <v>0.9947401478864338</v>
       </c>
       <c r="M20">
-        <v>1.013362777781317</v>
+        <v>1.018699331778596</v>
       </c>
       <c r="N20">
-        <v>0.9971187427335093</v>
+        <v>1.004717677787</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.019189676188197</v>
+        <v>1.023413098930558</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.013186835552691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.01799245664873</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.013284065091187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9538252922184087</v>
+        <v>0.963104008264795</v>
       </c>
       <c r="D21">
-        <v>0.982077759593005</v>
+        <v>0.9905559791374428</v>
       </c>
       <c r="E21">
-        <v>0.9660101864397228</v>
+        <v>0.974697837200119</v>
       </c>
       <c r="F21">
-        <v>0.9932457992590352</v>
+        <v>0.9999200982184768</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.02</v>
       </c>
       <c r="I21">
         <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.985388975061613</v>
+        <v>0.9942296429171319</v>
       </c>
       <c r="K21">
-        <v>0.9974068198194536</v>
+        <v>1.00571850784203</v>
       </c>
       <c r="L21">
-        <v>0.9816654455287062</v>
+        <v>0.9901749631414832</v>
       </c>
       <c r="M21">
-        <v>1.008356271910646</v>
+        <v>1.014902984521931</v>
       </c>
       <c r="N21">
-        <v>0.9945494771459404</v>
+        <v>1.003713106075903</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.015185359639537</v>
+        <v>1.020366814130181</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.009320203806982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.015214362274755</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.012169815205336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9482761513658096</v>
+        <v>0.9586717300764473</v>
       </c>
       <c r="D22">
-        <v>0.9778801360247568</v>
+        <v>0.9873915260305883</v>
       </c>
       <c r="E22">
-        <v>0.9613702415191304</v>
+        <v>0.9710996172333826</v>
       </c>
       <c r="F22">
-        <v>0.9894034014283505</v>
+        <v>0.9968904996171751</v>
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1.02</v>
       </c>
       <c r="I22">
         <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.9814672473635119</v>
+        <v>0.9913394829155835</v>
       </c>
       <c r="K22">
-        <v>0.9939029072506753</v>
+        <v>1.003216966679722</v>
       </c>
       <c r="L22">
-        <v>0.9777478709557448</v>
+        <v>0.9872661912488349</v>
       </c>
       <c r="M22">
-        <v>1.005187742906495</v>
+        <v>1.012523809024477</v>
       </c>
       <c r="N22">
-        <v>0.9929034901870372</v>
+        <v>1.003071126198024</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.012677584261996</v>
+        <v>1.018483798997752</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.006828647030686</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.013430405205105</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.011464375839782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9511866758683191</v>
+        <v>0.9609715659115141</v>
       </c>
       <c r="D23">
-        <v>0.9800701243040058</v>
+        <v>0.9890182366049367</v>
       </c>
       <c r="E23">
-        <v>0.9637967562859628</v>
+        <v>0.9729539249945366</v>
       </c>
       <c r="F23">
-        <v>0.9914140264597786</v>
+        <v>0.998457686685534</v>
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1.02</v>
       </c>
       <c r="I23">
         <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.9835119454291875</v>
+        <v>0.9928205777891354</v>
       </c>
       <c r="K23">
-        <v>0.9957247715313143</v>
+        <v>1.004492491351991</v>
       </c>
       <c r="L23">
-        <v>0.9797908508489611</v>
+        <v>0.9887551637139139</v>
       </c>
       <c r="M23">
-        <v>1.006840708494238</v>
+        <v>1.013746237628708</v>
       </c>
       <c r="N23">
-        <v>0.9937561448766983</v>
+        <v>1.00334535973673</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.013985847560561</v>
+        <v>1.019451299353496</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.008106876250372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.014321414666051</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.011814387896493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9623321734036085</v>
+        <v>0.9699587866061002</v>
       </c>
       <c r="D24">
-        <v>0.9884999808018189</v>
+        <v>0.9954389802781118</v>
       </c>
       <c r="E24">
-        <v>0.9731178622460124</v>
+        <v>0.9802659521489843</v>
       </c>
       <c r="F24">
-        <v>0.9991568201328401</v>
+        <v>1.004622800704826</v>
       </c>
       <c r="G24">
         <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1.02</v>
       </c>
       <c r="I24">
         <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>0.9913614956398621</v>
+        <v>0.9986643870105611</v>
       </c>
       <c r="K24">
-        <v>1.002732104987394</v>
+        <v>1.009546668786012</v>
       </c>
       <c r="L24">
-        <v>0.9876340980673894</v>
+        <v>0.9946487151704514</v>
       </c>
       <c r="M24">
-        <v>1.013198759152155</v>
+        <v>1.018569218234202</v>
       </c>
       <c r="N24">
-        <v>0.9970330336294569</v>
+        <v>1.004665348117217</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.019017993550211</v>
+        <v>1.023268470152428</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.013053957880399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.017886617918504</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.013233511704933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9745301622792735</v>
+        <v>0.9802254007670915</v>
       </c>
       <c r="D25">
-        <v>0.9977730840507727</v>
+        <v>1.002860648936972</v>
       </c>
       <c r="E25">
-        <v>0.9833507460243495</v>
+        <v>0.9887250231053958</v>
       </c>
       <c r="F25">
-        <v>1.007702066259908</v>
+        <v>1.011725289258895</v>
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1.02</v>
       </c>
       <c r="I25">
         <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>0.9999461783703227</v>
+        <v>1.005437090495164</v>
       </c>
       <c r="K25">
-        <v>1.010406068666573</v>
+        <v>1.015414718735968</v>
       </c>
       <c r="L25">
-        <v>0.9962131383499324</v>
+        <v>1.001500927071294</v>
       </c>
       <c r="M25">
-        <v>1.020181982691093</v>
+        <v>1.024144271726316</v>
       </c>
       <c r="N25">
-        <v>1.00060133031235</v>
+        <v>1.006794021442496</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024544895384753</v>
+        <v>1.02768084577238</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.018477186259964</v>
+        <v>1.022032512309</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.014919294616492</v>
       </c>
     </row>
   </sheetData>
